--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2_agile.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yrc2\Code\bioindustrial-park\BioSTEAM 2.x.x\biorefineries\oilcane\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB00CBD6-E409-4571-B5DA-D1CFD06F5C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>Element</t>
   </si>
@@ -94,6 +88,9 @@
     <t>Stream-pure glycerine</t>
   </si>
   <si>
+    <t>Saccharification</t>
+  </si>
+  <si>
     <t>cellulase</t>
   </si>
   <si>
@@ -109,6 +106,18 @@
     <t>Cofermentation</t>
   </si>
   <si>
+    <t>oilcane</t>
+  </si>
+  <si>
+    <t>oilsorghum</t>
+  </si>
+  <si>
+    <t>Oil retention [%]</t>
+  </si>
+  <si>
+    <t>Bagasse oil extraction efficiency [%]</t>
+  </si>
+  <si>
     <t>Capacity [ton/hr]</t>
   </si>
   <si>
@@ -130,7 +139,7 @@
     <t>Price [USD/kg]</t>
   </si>
   <si>
-    <t>Tau</t>
+    <t>Reaction time [hr]</t>
   </si>
   <si>
     <t>Cellulase loading [wt. % cellulose]</t>
@@ -163,18 +172,9 @@
     <t>Productivity [g/L]</t>
   </si>
   <si>
-    <t>Bagasse oil extraction efficiency [%]</t>
-  </si>
-  <si>
-    <t>oilcane</t>
-  </si>
-  <si>
     <t>Cane  PL content [% oil]</t>
   </si>
   <si>
-    <t>oilsorghum</t>
-  </si>
-  <si>
     <t>Sorghum  PL content [% oil]</t>
   </si>
   <si>
@@ -191,16 +191,13 @@
   </si>
   <si>
     <t>TAG to  FFA conversion [% oil]</t>
-  </si>
-  <si>
-    <t>Oil retention [%]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,11 +249,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -266,14 +260,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -320,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,27 +338,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,24 +372,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,37 +547,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -674,7 +622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,865 +630,865 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>-2.1937664653506581E-2</v>
+        <v>-0.02178606327144253</v>
       </c>
       <c r="E4">
-        <v>1.017420424696817E-3</v>
+        <v>0.001017420424696817</v>
       </c>
       <c r="F4">
-        <v>6.2119659686195837E-3</v>
+        <v>0.008873367245824569</v>
       </c>
       <c r="G4">
-        <v>9.7839535445031559E-3</v>
+        <v>0.006631759320898819</v>
       </c>
       <c r="H4">
-        <v>2.181278535251141E-2</v>
+        <v>0.02163572544142901</v>
       </c>
       <c r="I4">
-        <v>1.9732750005309999E-2</v>
+        <v>0.01973405570136223</v>
       </c>
       <c r="J4">
-        <v>4.6664576650420203E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+        <v>0.004047648023928821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>6.2114068404562732E-3</v>
+        <v>0.006244974681798986</v>
       </c>
       <c r="E5">
-        <v>-2.431366369254654E-2</v>
+        <v>-0.02431366369254654</v>
       </c>
       <c r="F5">
-        <v>7.2389608369982988E-3</v>
+        <v>-0.004555328027679798</v>
       </c>
       <c r="G5">
-        <v>-1.2782265045500949E-2</v>
+        <v>-0.005027616043633179</v>
       </c>
       <c r="H5">
-        <v>2.045212651408506E-2</v>
+        <v>0.02058372072734883</v>
       </c>
       <c r="I5">
-        <v>2.1703847524153899E-2</v>
+        <v>0.02170356662814266</v>
       </c>
       <c r="J5">
-        <v>6.0769064753894673E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+        <v>0.005235899113226982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>0.14010158355606331</v>
+        <v>0.1461728851109154</v>
       </c>
       <c r="E6">
-        <v>4.4739630589585208E-4</v>
+        <v>0.0004473963058958521</v>
       </c>
       <c r="F6">
-        <v>-0.19129478041647219</v>
+        <v>-0.1620529528657556</v>
       </c>
       <c r="G6">
-        <v>0.2015238379861623</v>
+        <v>0.2110682397058556</v>
       </c>
       <c r="H6">
-        <v>0.97684953436998123</v>
+        <v>0.9792522406100895</v>
       </c>
       <c r="I6">
-        <v>0.9749380372055213</v>
+        <v>0.9749379199895165</v>
       </c>
       <c r="J6">
-        <v>-0.43723373711148522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.4358742691555516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>0.94871165801246604</v>
+        <v>0.9451639506065579</v>
       </c>
       <c r="E7">
-        <v>-1.6837912225516491E-2</v>
+        <v>-0.01683791222551649</v>
       </c>
       <c r="F7">
-        <v>3.4532208090815773E-2</v>
+        <v>0.02523746121209629</v>
       </c>
       <c r="G7">
-        <v>-2.1215653709267181E-2</v>
+        <v>-0.01642449027200107</v>
       </c>
       <c r="H7">
-        <v>2.5132973805318948E-4</v>
+        <v>-7.207488288299531E-05</v>
       </c>
       <c r="I7">
-        <v>9.388744695549788E-4</v>
+        <v>0.0009378093495123737</v>
       </c>
       <c r="J7">
-        <v>1.3484506685827071E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.0147719677808594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>2.161780684871227E-2</v>
+        <v>0.02159808854392354</v>
       </c>
       <c r="E8">
-        <v>2.9479245339169811E-3</v>
+        <v>0.002947924533916981</v>
       </c>
       <c r="F8">
-        <v>-1.799247507815692E-3</v>
+        <v>-0.001435201649397467</v>
       </c>
       <c r="G8">
-        <v>1.1427191264899741E-2</v>
+        <v>0.009023845602815066</v>
       </c>
       <c r="H8">
-        <v>1.351200553248022E-2</v>
+        <v>0.01358505807940232</v>
       </c>
       <c r="I8">
-        <v>1.7057258794290351E-2</v>
+        <v>0.01705835175433407</v>
       </c>
       <c r="J8">
-        <v>2.8316089171379968E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.002669921342769697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>-3.7486534619461378E-3</v>
+        <v>-0.004956136038245441</v>
       </c>
       <c r="E9">
-        <v>2.7202657088106277E-4</v>
+        <v>0.0002720265708810628</v>
       </c>
       <c r="F9">
-        <v>-2.342008749204079E-3</v>
+        <v>-0.01249334876587546</v>
       </c>
       <c r="G9">
-        <v>-1.2304510242468101E-2</v>
+        <v>-0.01048073791044328</v>
       </c>
       <c r="H9">
-        <v>-1.7228010065120401E-2</v>
+        <v>-0.01716079201443168</v>
       </c>
       <c r="I9">
-        <v>-1.634195143767805E-2</v>
+        <v>-0.01634075134163005</v>
       </c>
       <c r="J9">
-        <v>-1.162517198491011E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+        <v>-0.01059737405566386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>9.393118935724757E-3</v>
+        <v>0.009240065457602616</v>
       </c>
       <c r="E10">
-        <v>-1.8701300428052011E-2</v>
+        <v>-0.01870130042805201</v>
       </c>
       <c r="F10">
-        <v>1.4897670811083759E-2</v>
+        <v>0.007718071258129879</v>
       </c>
       <c r="G10">
-        <v>-9.3574927185277323E-3</v>
+        <v>-0.008054564377493634</v>
       </c>
       <c r="H10">
-        <v>1.282621692904868E-2</v>
+        <v>0.01297155671086227</v>
       </c>
       <c r="I10">
-        <v>1.5170284158811361E-2</v>
+        <v>0.01517033091081323</v>
       </c>
       <c r="J10">
-        <v>8.2744014302954371E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+        <v>0.008558100883058488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>0.1147579658703186</v>
+        <v>0.1179754348950174</v>
       </c>
       <c r="E11">
-        <v>2.049043195561728E-2</v>
+        <v>0.02049043195561728</v>
       </c>
       <c r="F11">
-        <v>-2.2503474387140711E-2</v>
+        <v>-0.002575221489738423</v>
       </c>
       <c r="G11">
-        <v>1.9211651200486499E-2</v>
+        <v>0.01966852721956816</v>
       </c>
       <c r="H11">
-        <v>4.1720480388819214E-3</v>
+        <v>0.004754827486193099</v>
       </c>
       <c r="I11">
-        <v>0.22390094585203779</v>
+        <v>0.2239014582040583</v>
       </c>
       <c r="J11">
-        <v>-5.4655109140972552E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+        <v>-0.005330211965139834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>-0.1865834734793389</v>
+        <v>-0.1944687593307503</v>
       </c>
       <c r="E12">
-        <v>1.274416966176679E-2</v>
+        <v>0.01274416966176679</v>
       </c>
       <c r="F12">
-        <v>-1.43719358610077E-2</v>
+        <v>-0.02403284048275976</v>
       </c>
       <c r="G12">
-        <v>2.474078181510278E-2</v>
+        <v>0.02023854292754859</v>
       </c>
       <c r="H12">
-        <v>1.404875921795037E-2</v>
+        <v>0.01420801784832071</v>
       </c>
       <c r="I12">
-        <v>1.7457324410292969E-2</v>
+        <v>0.0174572575942903</v>
       </c>
       <c r="J12">
-        <v>-1.6682156610107451E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.01610976849236207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>1.9689991219599651E-2</v>
+        <v>0.01982688290507531</v>
       </c>
       <c r="E13">
-        <v>-1.8565329574613178E-2</v>
+        <v>-0.01856532957461318</v>
       </c>
       <c r="F13">
-        <v>6.9675929489250782E-3</v>
+        <v>0.01095787481283199</v>
       </c>
       <c r="G13">
-        <v>-8.3272087113071963E-3</v>
+        <v>-0.01189840659251182</v>
       </c>
       <c r="H13">
-        <v>-2.9185383567415339E-3</v>
+        <v>-0.002921853140874125</v>
       </c>
       <c r="I13">
-        <v>-4.9047487721899496E-3</v>
+        <v>-0.004904482468179298</v>
       </c>
       <c r="J13">
-        <v>7.9624237853895465E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.00833147847365638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>2.0345980653839221E-3</v>
+        <v>0.001805170728206829</v>
       </c>
       <c r="E14">
-        <v>-7.0090912243636469E-3</v>
+        <v>-0.007009091224363647</v>
       </c>
       <c r="F14">
-        <v>-5.8984297357941159E-3</v>
+        <v>0.00378156849679851</v>
       </c>
       <c r="G14">
-        <v>2.7648709168838141E-3</v>
+        <v>0.002995960697059417</v>
       </c>
       <c r="H14">
-        <v>-2.824010128960404E-3</v>
+        <v>-0.002975146103005844</v>
       </c>
       <c r="I14">
-        <v>-8.0747009629880372E-3</v>
+        <v>-0.008074795522991819</v>
       </c>
       <c r="J14">
-        <v>-5.0441897446680409E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.005216447544419975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>-2.1924503244980131E-2</v>
+        <v>-0.0222898449875938</v>
       </c>
       <c r="E15">
-        <v>4.6681906507276246E-3</v>
+        <v>0.004668190650727625</v>
       </c>
       <c r="F15">
-        <v>-9.3344547263127815E-3</v>
+        <v>-0.01032902611266237</v>
       </c>
       <c r="G15">
-        <v>1.1736110110634711E-2</v>
+        <v>0.01050458869304279</v>
       </c>
       <c r="H15">
-        <v>2.3440881577635259E-2</v>
+        <v>0.02241249468849978</v>
       </c>
       <c r="I15">
-        <v>-7.9171167646846698E-3</v>
+        <v>-0.007917184444687376</v>
       </c>
       <c r="J15">
-        <v>8.467293086274981E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>0.009819926855409125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>-6.0777597727103887E-2</v>
+        <v>-0.06064486034579441</v>
       </c>
       <c r="E16">
-        <v>9.4010464240418552E-3</v>
+        <v>0.009401046424041855</v>
       </c>
       <c r="F16">
-        <v>-7.3492873733884446E-3</v>
+        <v>-0.002272743482321257</v>
       </c>
       <c r="G16">
-        <v>9.1066295981990682E-3</v>
+        <v>0.007767363540307167</v>
       </c>
       <c r="H16">
-        <v>5.1889673435586928E-3</v>
+        <v>0.005459343194373727</v>
       </c>
       <c r="I16">
-        <v>7.4319407132776268E-3</v>
+        <v>0.007432342089293682</v>
       </c>
       <c r="J16">
-        <v>-1.4712025568607071E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+        <v>-0.0008136725137576451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C17">
-        <v>2.2373961534958458E-3</v>
+        <v>0.002148286165931446</v>
       </c>
       <c r="E17">
-        <v>-2.742909901716396E-3</v>
+        <v>-0.002742909901716396</v>
       </c>
       <c r="F17">
-        <v>5.1265350768776169E-3</v>
+        <v>0.005157937455579056</v>
       </c>
       <c r="G17">
-        <v>1.0608808760365939E-2</v>
+        <v>0.01174648469745057</v>
       </c>
       <c r="H17">
-        <v>8.4889899395595957E-3</v>
+        <v>0.008542001717680067</v>
       </c>
       <c r="I17">
-        <v>6.1111490444459614E-3</v>
+        <v>0.006111340564453622</v>
       </c>
       <c r="J17">
-        <v>-2.4361433327783769E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-0.002971988331301852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C18">
-        <v>-3.4561163174446519E-2</v>
+        <v>-0.03450804550832182</v>
       </c>
       <c r="E18">
-        <v>-8.6810933392437329E-3</v>
+        <v>-0.008681093339243733</v>
       </c>
       <c r="F18">
-        <v>4.3309629827162233E-3</v>
+        <v>0.002489322178644055</v>
       </c>
       <c r="G18">
-        <v>7.679919234553979E-3</v>
+        <v>0.007345519945247731</v>
       </c>
       <c r="H18">
-        <v>0.19742360095294401</v>
+        <v>0.189830026377201</v>
       </c>
       <c r="I18">
-        <v>-1.069800042792002E-4</v>
+        <v>-0.0001072122282884891</v>
       </c>
       <c r="J18">
-        <v>2.86134837436826E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>0.001449378828131829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>2.2309267900370709E-2</v>
+        <v>0.02341113184844527</v>
       </c>
       <c r="E19">
-        <v>0.27720640257625612</v>
+        <v>0.2772064025762561</v>
       </c>
       <c r="F19">
-        <v>-0.2582485821188133</v>
+        <v>-0.2453006894465198</v>
       </c>
       <c r="G19">
-        <v>0.34277396535212717</v>
+        <v>0.3549211106169068</v>
       </c>
       <c r="H19">
-        <v>6.8723431548937258E-3</v>
+        <v>0.007507661580306462</v>
       </c>
       <c r="I19">
-        <v>2.1955646318225848E-3</v>
+        <v>0.002195439735817589</v>
       </c>
       <c r="J19">
-        <v>1.6408403238782829E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+        <v>0.01410233957707786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>-3.9134391965375668E-4</v>
+        <v>-0.0004284536811381472</v>
       </c>
       <c r="E20">
-        <v>0.14953456006138241</v>
+        <v>0.1495345600613824</v>
       </c>
       <c r="F20">
-        <v>-0.1685975315718192</v>
+        <v>-0.1625626329150576</v>
       </c>
       <c r="G20">
-        <v>0.10785747091145199</v>
+        <v>0.1105346451586075</v>
       </c>
       <c r="H20">
-        <v>-3.9858374650334982E-2</v>
+        <v>-0.03439347900773915</v>
       </c>
       <c r="I20">
-        <v>-2.348462397938495E-3</v>
+        <v>-0.002349029949961198</v>
       </c>
       <c r="J20">
-        <v>-0.38711121895801692</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+        <v>-0.3898497506860864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>2.5568493182739722E-3</v>
+        <v>0.004155616294224652</v>
       </c>
       <c r="E21">
-        <v>0.32673465735738622</v>
+        <v>0.3267346573573862</v>
       </c>
       <c r="F21">
-        <v>-0.20779514165000221</v>
+        <v>-0.1569255335297797</v>
       </c>
       <c r="G21">
-        <v>0.29682799509343483</v>
+        <v>0.2924377355521244</v>
       </c>
       <c r="H21">
-        <v>3.8814068752562741E-3</v>
+        <v>0.003907332924293317</v>
       </c>
       <c r="I21">
-        <v>3.8114983284599328E-3</v>
+        <v>0.003810244472409778</v>
       </c>
       <c r="J21">
-        <v>7.2475808278179227E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+        <v>0.00822127075708408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C22">
-        <v>-2.211183822847353E-2</v>
+        <v>-0.02241461667258467</v>
       </c>
       <c r="E22">
-        <v>4.7186308767452343E-3</v>
+        <v>0.004718630876745234</v>
       </c>
       <c r="F22">
-        <v>-2.258434465988398E-2</v>
+        <v>-0.03191199802129083</v>
       </c>
       <c r="G22">
-        <v>-4.6435708305573066E-3</v>
+        <v>0.005389167689688764</v>
       </c>
       <c r="H22">
-        <v>-1.402084731283389E-2</v>
+        <v>-0.01297766067910643</v>
       </c>
       <c r="I22">
-        <v>-1.083848654553946E-2</v>
+        <v>-0.01083829809753192</v>
       </c>
       <c r="J22">
-        <v>-0.18981205558014511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>-0.1898850109499493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C23">
-        <v>5.1756003798240142E-2</v>
+        <v>0.0538197277847891</v>
       </c>
       <c r="E23">
         <v>0.5407430554857221</v>
       </c>
       <c r="F23">
-        <v>-0.20536295230505111</v>
+        <v>-0.1524428430707618</v>
       </c>
       <c r="G23">
-        <v>0.1106071423925042</v>
+        <v>0.04690813574791969</v>
       </c>
       <c r="H23">
-        <v>-4.263842215353688E-2</v>
+        <v>-0.03736746341469853</v>
       </c>
       <c r="I23">
-        <v>-1.2446777009871081E-2</v>
+        <v>-0.01244611460984458</v>
       </c>
       <c r="J23">
-        <v>-0.31723076152320218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+        <v>-0.3187019479903064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>4.5387326391493052E-2</v>
+        <v>0.04483890995355639</v>
       </c>
       <c r="E24">
-        <v>0.66686448382657926</v>
+        <v>0.6668644838265793</v>
       </c>
       <c r="F24">
-        <v>-0.68608522413697692</v>
+        <v>-0.5876221398360102</v>
       </c>
       <c r="G24">
-        <v>0.6835938052311431</v>
+        <v>0.6959210190218049</v>
       </c>
       <c r="H24">
-        <v>-2.224837106593484E-2</v>
+        <v>-0.005629947489197899</v>
       </c>
       <c r="I24">
-        <v>1.2287652491506099E-2</v>
+        <v>0.01228859233154369</v>
       </c>
       <c r="J24">
-        <v>-0.54280478135074817</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>-0.5441886656332993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>2.5076996203079851E-3</v>
+        <v>0.002464859234594369</v>
       </c>
       <c r="E25">
-        <v>-1.5653802290152091E-2</v>
+        <v>-0.01565380229015209</v>
       </c>
       <c r="F25">
-        <v>1.530085873810855E-2</v>
+        <v>0.003655880603032582</v>
       </c>
       <c r="G25">
-        <v>-2.8825676066641282E-3</v>
+        <v>-0.002472211619769656</v>
       </c>
       <c r="H25">
-        <v>1.8524336420973449E-2</v>
+        <v>0.0181516475100659</v>
       </c>
       <c r="I25">
-        <v>1.9287016131480639E-2</v>
+        <v>0.01928729318749172</v>
       </c>
       <c r="J25">
-        <v>1.9197316682154599E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+        <v>0.01679945128897563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>2.5072778154911119E-2</v>
+        <v>0.02548867829954713</v>
       </c>
       <c r="E26">
-        <v>2.9604575168183E-2</v>
+        <v>0.029604575168183</v>
       </c>
       <c r="F26">
-        <v>-3.3749847007870391E-2</v>
+        <v>-0.02074721525888076</v>
       </c>
       <c r="G26">
-        <v>3.2960266632918747E-2</v>
+        <v>0.02467116754115437</v>
       </c>
       <c r="H26">
-        <v>1.4547607781904309E-2</v>
+        <v>0.01505233932209357</v>
       </c>
       <c r="I26">
-        <v>1.2201717512068701E-2</v>
+        <v>0.01220217975208719</v>
       </c>
       <c r="J26">
-        <v>-3.5575821583700581E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-0.03840649868140881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>2.198764407950576E-2</v>
+        <v>0.0216441526097661</v>
       </c>
       <c r="E27">
-        <v>-2.3679409523176379E-2</v>
+        <v>-0.02367940952317638</v>
       </c>
       <c r="F27">
-        <v>3.2409845122599583E-2</v>
+        <v>0.03009971920696352</v>
       </c>
       <c r="G27">
-        <v>-3.0922039297200828E-2</v>
+        <v>-0.0281752254241294</v>
       </c>
       <c r="H27">
-        <v>-2.1430033049201321E-2</v>
+        <v>-0.02191496026859841</v>
       </c>
       <c r="I27">
-        <v>-2.2727020749080829E-2</v>
+        <v>-0.02272681780507271</v>
       </c>
       <c r="J27">
-        <v>2.565655042136018E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.02482578237397206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>-1.506210473048419E-2</v>
+        <v>-0.01509759391590375</v>
       </c>
       <c r="E28">
-        <v>-3.7490638619625538E-3</v>
+        <v>-0.003749063861962554</v>
       </c>
       <c r="F28">
-        <v>6.1511375748517748E-4</v>
+        <v>0.003287580474801443</v>
       </c>
       <c r="G28">
-        <v>1.351745773607675E-2</v>
+        <v>0.01491650923100497</v>
       </c>
       <c r="H28">
-        <v>1.4491561539662461E-2</v>
+        <v>0.01409259425970377</v>
       </c>
       <c r="I28">
-        <v>9.3571635742865419E-3</v>
+        <v>0.009357281366291253</v>
       </c>
       <c r="J28">
-        <v>6.3502518946972194E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.005794656624408714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>1.254715518988621E-2</v>
+        <v>0.01250631611625264</v>
       </c>
       <c r="E29">
-        <v>3.853490170139607E-3</v>
+        <v>0.003853490170139607</v>
       </c>
       <c r="F29">
-        <v>4.8117433971448563E-3</v>
+        <v>0.01293373829409526</v>
       </c>
       <c r="G29">
-        <v>-2.789452166326944E-3</v>
+        <v>-0.004174761726281804</v>
       </c>
       <c r="H29">
-        <v>-8.5134197325367894E-3</v>
+        <v>-0.008002611488104459</v>
       </c>
       <c r="I29">
-        <v>-7.6448914737956572E-3</v>
+        <v>-0.00764560302582412</v>
       </c>
       <c r="J29">
-        <v>-1.276141319991414E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-0.0137836291158552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>3.4085716243428652E-3</v>
+        <v>0.003413737576549503</v>
       </c>
       <c r="E30">
-        <v>9.3023840520953607E-4</v>
+        <v>0.0009302384052095361</v>
       </c>
       <c r="F30">
-        <v>-6.5675258239786842E-3</v>
+        <v>-0.0124115332554731</v>
       </c>
       <c r="G30">
-        <v>3.4744712622627369E-3</v>
+        <v>0.006810400281800915</v>
       </c>
       <c r="H30">
-        <v>3.192073279682931E-3</v>
+        <v>0.003147726845909073</v>
       </c>
       <c r="I30">
-        <v>2.8341837293673492E-3</v>
+        <v>0.00283437025737481</v>
       </c>
       <c r="J30">
-        <v>5.7191465245896526E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.00354139195492527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>-3.9627021745080862E-3</v>
+        <v>-0.004047923489916939</v>
       </c>
       <c r="E31">
-        <v>9.8362603294504126E-3</v>
+        <v>0.009836260329450413</v>
       </c>
       <c r="F31">
-        <v>-8.2715652894755545E-3</v>
+        <v>-0.007857736334602971</v>
       </c>
       <c r="G31">
-        <v>1.0945694752440369E-2</v>
+        <v>0.01494529965587539</v>
       </c>
       <c r="H31">
-        <v>1.5789615799584631E-2</v>
+        <v>0.0164111325924453</v>
       </c>
       <c r="I31">
-        <v>1.6355049678201981E-2</v>
+        <v>0.01635562932622517</v>
       </c>
       <c r="J31">
-        <v>-2.8428142872015411E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-0.02654386948525206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32">
-        <v>9.4255605050224192E-3</v>
+        <v>0.009378092631123705</v>
       </c>
       <c r="E32">
-        <v>-6.0570060022802389E-4</v>
+        <v>-0.0006057006002280239</v>
       </c>
       <c r="F32">
-        <v>-1.7820343666005471E-3</v>
+        <v>0.00143902236392284</v>
       </c>
       <c r="G32">
-        <v>4.5694257497641061E-3</v>
+        <v>0.005555258728085256</v>
       </c>
       <c r="H32">
-        <v>2.2426070337042809E-3</v>
+        <v>0.002155139318205572</v>
       </c>
       <c r="I32">
-        <v>3.2590325143612999E-3</v>
+        <v>0.003259299394371975</v>
       </c>
       <c r="J32">
-        <v>3.6337532223211029E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.003211697317246898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33">
-        <v>4.9563349502533974E-3</v>
+        <v>0.004859306978372279</v>
       </c>
       <c r="E33">
-        <v>-2.5922292556891701E-3</v>
+        <v>-0.00259222925568917</v>
       </c>
       <c r="F33">
-        <v>1.652195691144486E-3</v>
+        <v>-0.001651015941841666</v>
       </c>
       <c r="G33">
-        <v>-7.936204419556071E-3</v>
+        <v>-0.0052251226859695</v>
       </c>
       <c r="H33">
-        <v>-4.7179572447182891E-3</v>
+        <v>-0.004976521063060842</v>
       </c>
       <c r="I33">
-        <v>-5.3490356379614244E-3</v>
+        <v>-0.005349251061970041</v>
       </c>
       <c r="J33">
-        <v>1.5414112237651E-2</v>
+        <v>0.01505219169648533</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Element</t>
   </si>
@@ -25,6 +25,24 @@
     <t>Biorefinery</t>
   </si>
   <si>
+    <t>Biofuel displacement</t>
+  </si>
+  <si>
+    <t>Ethanol displacement</t>
+  </si>
+  <si>
+    <t>Biodiesel displacement</t>
+  </si>
+  <si>
+    <t>Biofuel allocation</t>
+  </si>
+  <si>
+    <t>Ethanol allocation</t>
+  </si>
+  <si>
+    <t>Biodiesel allocation</t>
+  </si>
+  <si>
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
@@ -67,6 +85,15 @@
     <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
+    <t>GWP [kg*CO2*eq / GGE]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2*eq / (ethanol*gal)]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2*eq / (biodiesel*gal)]</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -112,6 +139,9 @@
     <t>oilsorghum</t>
   </si>
   <si>
+    <t>Stream-sugarcane</t>
+  </si>
+  <si>
     <t>Oil retention [%]</t>
   </si>
   <si>
@@ -172,16 +202,16 @@
     <t>Productivity [g/L]</t>
   </si>
   <si>
-    <t>Cane  PL content [% oil]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL content [% oil]</t>
-  </si>
-  <si>
-    <t>Cane  FFA content [% oil]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA content [% oil]</t>
+    <t>Cane PL content [% oil]</t>
+  </si>
+  <si>
+    <t>Sorghum PL content [% oil]</t>
+  </si>
+  <si>
+    <t>Cane FFA content [% oil]</t>
+  </si>
+  <si>
+    <t>Sorghum FFA content [% oil]</t>
   </si>
   <si>
     <t>Cane oil content [dry wt. %]</t>
@@ -190,7 +220,10 @@
     <t>Relative sorghum oil content [dry wt. %]</t>
   </si>
   <si>
-    <t>TAG to  FFA conversion [% oil]</t>
+    <t>TAG to FFA conversion [% oil]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2-eq/kg]</t>
   </si>
 </sst>
 </file>
@@ -548,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,910 +607,1347 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>-0.02302120191284807</v>
+        <v>-0.08313231323132311</v>
       </c>
       <c r="E4">
-        <v>0.001032732137309285</v>
+        <v>0.04037203720372036</v>
       </c>
       <c r="F4">
-        <v>-0.00376746265607214</v>
+        <v>-0.1280946699826108</v>
       </c>
       <c r="G4">
-        <v>0.02487285930000716</v>
+        <v>0.1696009333459469</v>
       </c>
       <c r="H4">
-        <v>0.01791132282845291</v>
+        <v>-0.03756375637563756</v>
       </c>
       <c r="I4">
-        <v>0.01973275000531</v>
+        <v>-0.03986798679867986</v>
       </c>
       <c r="J4">
-        <v>-0.02127846942475841</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>-0.08440444044404438</v>
+      </c>
+      <c r="Q4">
+        <v>0.07258325832583257</v>
+      </c>
+      <c r="R4">
+        <v>0.07258325832583257</v>
+      </c>
+      <c r="T4">
+        <v>0.1737893789378938</v>
+      </c>
+      <c r="U4">
+        <v>0.1737893789378938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>0.006588967271558689</v>
+        <v>-0.1168436843684368</v>
       </c>
       <c r="E5">
-        <v>-0.02432540276501611</v>
+        <v>0.09405340534053404</v>
       </c>
       <c r="F5">
-        <v>0.008096569982922934</v>
+        <v>0.04237541673602664</v>
       </c>
       <c r="G5">
-        <v>-0.01583901468574324</v>
+        <v>-0.09262312211190331</v>
       </c>
       <c r="H5">
-        <v>0.02125710641828425</v>
+        <v>-0.1013501350135013</v>
       </c>
       <c r="I5">
-        <v>0.0217038475241539</v>
+        <v>-0.1047704770477047</v>
       </c>
       <c r="J5">
-        <v>-0.005856977474432011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>0.04844884488448844</v>
+      </c>
+      <c r="Q5">
+        <v>-0.1315211521152115</v>
+      </c>
+      <c r="R5">
+        <v>-0.1315211521152115</v>
+      </c>
+      <c r="T5">
+        <v>-0.1363336333633363</v>
+      </c>
+      <c r="U5">
+        <v>-0.1363336333633363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>0.138940350805614</v>
+        <v>0.1189198919891989</v>
       </c>
       <c r="E6">
-        <v>0.0004622034424881377</v>
+        <v>-0.03068706870687068</v>
       </c>
       <c r="F6">
-        <v>-0.04489338421564157</v>
+        <v>0.06408494352623866</v>
       </c>
       <c r="G6">
-        <v>0.0946820372409668</v>
+        <v>0.01148483488462996</v>
       </c>
       <c r="H6">
-        <v>0.9590752477070097</v>
+        <v>0.9591119111911189</v>
       </c>
       <c r="I6">
-        <v>0.9749380372055213</v>
+        <v>0.9740294029402939</v>
       </c>
       <c r="J6">
-        <v>-0.4177225944103736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>-0.471959195919592</v>
+      </c>
+      <c r="Q6">
+        <v>0.3349174917491749</v>
+      </c>
+      <c r="R6">
+        <v>0.3349174917491749</v>
+      </c>
+      <c r="T6">
+        <v>0.1799699969996999</v>
+      </c>
+      <c r="U6">
+        <v>0.1799699969996999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>0.947654553490182</v>
+        <v>0.9540234023402339</v>
       </c>
       <c r="E7">
-        <v>-0.01682600832104033</v>
+        <v>-0.02642664266426642</v>
       </c>
       <c r="F7">
-        <v>0.002880177694870388</v>
+        <v>-0.03256899125218467</v>
       </c>
       <c r="G7">
-        <v>-0.00102103677420824</v>
+        <v>-0.001350803893905771</v>
       </c>
       <c r="H7">
-        <v>-0.003896955707878228</v>
+        <v>-0.04096009600960095</v>
       </c>
       <c r="I7">
-        <v>0.0009388744695549788</v>
+        <v>0.009948994899489947</v>
       </c>
       <c r="J7">
-        <v>-9.892546009472263E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>0.04537653765376538</v>
+      </c>
+      <c r="Q7">
+        <v>0.05820582058205821</v>
+      </c>
+      <c r="R7">
+        <v>0.05820582058205821</v>
+      </c>
+      <c r="T7">
+        <v>0.03565556555655565</v>
+      </c>
+      <c r="U7">
+        <v>0.03565556555655565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>0.02008407593936303</v>
+        <v>-0.1232763276327633</v>
       </c>
       <c r="E8">
-        <v>0.002951949814077992</v>
+        <v>-0.1082148214821482</v>
       </c>
       <c r="F8">
-        <v>-0.02061472893932769</v>
+        <v>-0.05939327879331713</v>
       </c>
       <c r="G8">
-        <v>0.004696674908029276</v>
+        <v>-0.007942726896165936</v>
       </c>
       <c r="H8">
-        <v>0.01460623930424957</v>
+        <v>0.06658265826582659</v>
       </c>
       <c r="I8">
-        <v>0.01705725879429035</v>
+        <v>0.1034143414341434</v>
       </c>
       <c r="J8">
-        <v>-0.01088859635470078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>-0.1327932793279328</v>
+      </c>
+      <c r="Q8">
+        <v>0.09454545454545453</v>
+      </c>
+      <c r="R8">
+        <v>0.09454545454545453</v>
+      </c>
+      <c r="T8">
+        <v>0.05814581458145814</v>
+      </c>
+      <c r="U8">
+        <v>0.05814581458145814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>-0.01695280723811229</v>
+        <v>0.04954095409540954</v>
       </c>
       <c r="E9">
-        <v>0.0002733186349327454</v>
+        <v>0.1060786078607861</v>
       </c>
       <c r="F9">
-        <v>-0.01112903457270683</v>
+        <v>0.1810474871686108</v>
       </c>
       <c r="G9">
-        <v>0.02518476321014229</v>
+        <v>-0.105092542945869</v>
       </c>
       <c r="H9">
-        <v>-0.0209408200056328</v>
+        <v>-0.0941134113411341</v>
       </c>
       <c r="I9">
-        <v>-0.01634195143767805</v>
+        <v>-0.08783678367836784</v>
       </c>
       <c r="J9">
-        <v>-0.009750101059576183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>0.2066486648664866</v>
+      </c>
+      <c r="Q9">
+        <v>-0.1939393939393939</v>
+      </c>
+      <c r="R9">
+        <v>-0.1939393939393939</v>
+      </c>
+      <c r="T9">
+        <v>-0.1916231623162316</v>
+      </c>
+      <c r="U9">
+        <v>-0.1916231623162316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>0.00985258628210345</v>
+        <v>0.07197119711971196</v>
       </c>
       <c r="E10">
-        <v>-0.01870186615607464</v>
+        <v>-0.1598919891989199</v>
       </c>
       <c r="F10">
-        <v>0.01529185893622248</v>
+        <v>0.09382389252469711</v>
       </c>
       <c r="G10">
-        <v>-0.005699647229078347</v>
+        <v>-0.05888304262856803</v>
       </c>
       <c r="H10">
-        <v>0.01348574137142965</v>
+        <v>0.1145394539453945</v>
       </c>
       <c r="I10">
-        <v>0.01517028415881136</v>
+        <v>0.08636063606360635</v>
       </c>
       <c r="J10">
-        <v>-0.01107694994649711</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>0.0579057905790579</v>
+      </c>
+      <c r="Q10">
+        <v>0.01621362136213621</v>
+      </c>
+      <c r="R10">
+        <v>0.01621362136213621</v>
+      </c>
+      <c r="T10">
+        <v>-0.0111011101110111</v>
+      </c>
+      <c r="U10">
+        <v>-0.0111011101110111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>0.1149117370444695</v>
+        <v>0.05327332733273327</v>
       </c>
       <c r="E11">
-        <v>0.02050184702807388</v>
+        <v>0.1226882688268827</v>
       </c>
       <c r="F11">
-        <v>-0.01696293392225088</v>
+        <v>-0.05100657550320491</v>
       </c>
       <c r="G11">
-        <v>0.01615601174194973</v>
+        <v>0.0003962358088790263</v>
       </c>
       <c r="H11">
-        <v>0.005449133497965338</v>
+        <v>-0.04495649564956495</v>
       </c>
       <c r="I11">
-        <v>0.2239009458520378</v>
+        <v>0.1718931893189319</v>
       </c>
       <c r="J11">
-        <v>-0.001481017405302272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>0.05874587458745874</v>
+      </c>
+      <c r="Q11">
+        <v>-0.05268526852685268</v>
+      </c>
+      <c r="R11">
+        <v>-0.05268526852685268</v>
+      </c>
+      <c r="T11">
+        <v>-0.04711671167116711</v>
+      </c>
+      <c r="U11">
+        <v>-0.04711671167116711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>-0.1890980918199237</v>
+        <v>-0.1620762076207621</v>
       </c>
       <c r="E12">
-        <v>0.01276678275067131</v>
+        <v>-0.05987398739873986</v>
       </c>
       <c r="F12">
-        <v>-0.01707237707880331</v>
+        <v>0.02248990389007671</v>
       </c>
       <c r="G12">
-        <v>0.01587100815045205</v>
+        <v>0.05540697394158384</v>
       </c>
       <c r="H12">
-        <v>0.01687628429105137</v>
+        <v>0.01296129612961296</v>
       </c>
       <c r="I12">
-        <v>0.01745732441029297</v>
+        <v>0.03956795679567957</v>
       </c>
       <c r="J12">
-        <v>-0.01912296967153796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>-0.04834083408340833</v>
+      </c>
+      <c r="Q12">
+        <v>-0.1194239423942394</v>
+      </c>
+      <c r="R12">
+        <v>-0.1194239423942394</v>
+      </c>
+      <c r="T12">
+        <v>0.003348334833483348</v>
+      </c>
+      <c r="U12">
+        <v>0.003348334833483348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>0.01960315950412637</v>
+        <v>0.132049204920492</v>
       </c>
       <c r="E13">
-        <v>-0.01854536349381454</v>
+        <v>-0.06461446144614461</v>
       </c>
       <c r="F13">
-        <v>0.001242885550196807</v>
+        <v>0.1395840774047152</v>
       </c>
       <c r="G13">
-        <v>-0.006837161519766066</v>
+        <v>-0.1577798983810559</v>
       </c>
       <c r="H13">
-        <v>-0.003574235278969411</v>
+        <v>0.03998799879987998</v>
       </c>
       <c r="I13">
-        <v>-0.00490474877218995</v>
+        <v>0.008544854485448544</v>
       </c>
       <c r="J13">
-        <v>0.0145233041531486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>0.1061026102610261</v>
+      </c>
+      <c r="Q13">
+        <v>-0.1141194119411941</v>
+      </c>
+      <c r="R13">
+        <v>-0.1141194119411941</v>
+      </c>
+      <c r="T13">
+        <v>-0.1951515151515151</v>
+      </c>
+      <c r="U13">
+        <v>-0.1951515151515151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>0.0007870509434820376</v>
+        <v>-0.01270927092709271</v>
       </c>
       <c r="E14">
-        <v>-0.007000363480014538</v>
+        <v>0.07462346234623461</v>
       </c>
       <c r="F14">
-        <v>-0.0398982196309138</v>
+        <v>-0.01174326503290377</v>
       </c>
       <c r="G14">
-        <v>0.01254603613627407</v>
+        <v>0.02175094447831382</v>
       </c>
       <c r="H14">
-        <v>-0.003387025479481019</v>
+        <v>0.1448304830483048</v>
       </c>
       <c r="I14">
-        <v>-0.008074700962988037</v>
+        <v>0.1209000900090009</v>
       </c>
       <c r="J14">
-        <v>-0.02491765571939161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>-0.07896789678967894</v>
+      </c>
+      <c r="Q14">
+        <v>0.1943234323432343</v>
+      </c>
+      <c r="R14">
+        <v>0.1943234323432343</v>
+      </c>
+      <c r="T14">
+        <v>0.07699969996999699</v>
+      </c>
+      <c r="U14">
+        <v>0.07699969996999699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>-0.02160486633619465</v>
+        <v>0.02511851185118512</v>
       </c>
       <c r="E15">
-        <v>0.004674259482970378</v>
+        <v>0.1013381338133813</v>
       </c>
       <c r="F15">
-        <v>-0.02127167145911354</v>
+        <v>-0.133049594460065</v>
       </c>
       <c r="G15">
-        <v>0.01788786240409441</v>
+        <v>0.1397091440670276</v>
       </c>
       <c r="H15">
-        <v>0.01673824079752963</v>
+        <v>-0.08246024602460245</v>
       </c>
       <c r="I15">
-        <v>-0.00791711676468467</v>
+        <v>-0.05232523252325232</v>
       </c>
       <c r="J15">
-        <v>-0.004427472807261954</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>0.05286528652865286</v>
+      </c>
+      <c r="Q15">
+        <v>-0.2622022202220222</v>
+      </c>
+      <c r="R15">
+        <v>-0.2622022202220222</v>
+      </c>
+      <c r="T15">
+        <v>-0.0436003600360036</v>
+      </c>
+      <c r="U15">
+        <v>-0.0436003600360036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>-0.05970806648432265</v>
+        <v>0.03817581758175817</v>
       </c>
       <c r="E16">
-        <v>0.009406088728243547</v>
+        <v>-0.1299009900990099</v>
       </c>
       <c r="F16">
-        <v>0.009458813290223172</v>
+        <v>-0.006647308549449931</v>
       </c>
       <c r="G16">
-        <v>-5.231035733710996E-05</v>
+        <v>0.002233329104590875</v>
       </c>
       <c r="H16">
-        <v>0.005413048536521941</v>
+        <v>0.2116531653165316</v>
       </c>
       <c r="I16">
-        <v>0.007431940713277627</v>
+        <v>0.2276267626762676</v>
       </c>
       <c r="J16">
-        <v>0.005507278115957256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>-0.1367656765676568</v>
+      </c>
+      <c r="Q16">
+        <v>0.1187518751875187</v>
+      </c>
+      <c r="R16">
+        <v>0.1187518751875187</v>
+      </c>
+      <c r="T16">
+        <v>0.085016501650165</v>
+      </c>
+      <c r="U16">
+        <v>0.085016501650165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>0.002659018378360735</v>
+        <v>0.1729612961296129</v>
       </c>
       <c r="E17">
-        <v>-0.002726778829071153</v>
+        <v>-0.02891089108910891</v>
       </c>
       <c r="F17">
-        <v>-0.01088984459482972</v>
+        <v>0.1345633379911279</v>
       </c>
       <c r="G17">
-        <v>-0.01599706895285604</v>
+        <v>-0.1490326927214083</v>
       </c>
       <c r="H17">
-        <v>0.008351034094041363</v>
+        <v>0.1211401140114011</v>
       </c>
       <c r="I17">
-        <v>0.006111149044445961</v>
+        <v>0.1073507350735073</v>
       </c>
       <c r="J17">
-        <v>0.00259292665132642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>-0.004248424842484248</v>
+      </c>
+      <c r="Q17">
+        <v>0.02707470747074707</v>
+      </c>
+      <c r="R17">
+        <v>0.02707470747074707</v>
+      </c>
+      <c r="T17">
+        <v>-0.06869486948694868</v>
+      </c>
+      <c r="U17">
+        <v>-0.06869486948694868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C18">
-        <v>-0.03467604791504191</v>
+        <v>-0.2077047704770477</v>
       </c>
       <c r="E18">
-        <v>-0.008695143515805739</v>
+        <v>0.09290129012901288</v>
       </c>
       <c r="F18">
-        <v>-0.008198744070288758</v>
+        <v>-0.0358127273901765</v>
       </c>
       <c r="G18">
-        <v>-0.008545399351393541</v>
+        <v>0.002815675672185808</v>
       </c>
       <c r="H18">
-        <v>0.18631449999658</v>
+        <v>0.2086408640864086</v>
       </c>
       <c r="I18">
-        <v>-0.0001069800042792002</v>
+        <v>0.007992799279927992</v>
       </c>
       <c r="J18">
-        <v>-0.01247892814852779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>-0.08252025202520252</v>
+      </c>
+      <c r="Q18">
+        <v>-0.07825982598259826</v>
+      </c>
+      <c r="R18">
+        <v>-0.07825982598259826</v>
+      </c>
+      <c r="T18">
+        <v>-0.0654065406540654</v>
+      </c>
+      <c r="U18">
+        <v>-0.0654065406540654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C19">
-        <v>0.02385810057032402</v>
+        <v>-0.0399039903990399</v>
       </c>
       <c r="E19">
-        <v>0.2772102960484118</v>
+        <v>0.3202160216021602</v>
       </c>
       <c r="F19">
-        <v>-0.06340019896244525</v>
+        <v>-0.07108013102382105</v>
       </c>
       <c r="G19">
-        <v>0.102226155425295</v>
+        <v>0.1042640498909402</v>
       </c>
       <c r="H19">
-        <v>0.01713001441320058</v>
+        <v>0.000336033603360336</v>
       </c>
       <c r="I19">
-        <v>0.002195564631822585</v>
+        <v>0.005352535253525352</v>
       </c>
       <c r="J19">
-        <v>0.01564319594350316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>-0.05053705370537052</v>
+      </c>
+      <c r="Q19">
+        <v>0.027002700270027</v>
+      </c>
+      <c r="R19">
+        <v>0.027002700270027</v>
+      </c>
+      <c r="T19">
+        <v>0.0763996399639964</v>
+      </c>
+      <c r="U19">
+        <v>0.0763996399639964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C20">
-        <v>-0.003406198888247955</v>
+        <v>0.04054005400540054</v>
       </c>
       <c r="E20">
-        <v>0.149548874429955</v>
+        <v>0.2243384338433843</v>
       </c>
       <c r="F20">
-        <v>-0.04598006240357987</v>
+        <v>-0.1059902535755998</v>
       </c>
       <c r="G20">
-        <v>0.06337333808779727</v>
+        <v>0.1089168188588378</v>
       </c>
       <c r="H20">
-        <v>-0.01889281189171247</v>
+        <v>0.05832583258325832</v>
       </c>
       <c r="I20">
-        <v>-0.002348462397938495</v>
+        <v>0.07345934593459345</v>
       </c>
       <c r="J20">
-        <v>-0.1068562469829938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>-0.1772697269726972</v>
+      </c>
+      <c r="Q20">
+        <v>0.03631563156315631</v>
+      </c>
+      <c r="R20">
+        <v>0.03631563156315631</v>
+      </c>
+      <c r="T20">
+        <v>0.09850585058505851</v>
+      </c>
+      <c r="U20">
+        <v>0.09850585058505851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>0.0007154689246187568</v>
+        <v>-0.09100510051005099</v>
       </c>
       <c r="E21">
-        <v>0.3267465038538601</v>
+        <v>0.2328832883288329</v>
       </c>
       <c r="F21">
-        <v>-0.054325001311014</v>
+        <v>-0.07479397384847836</v>
       </c>
       <c r="G21">
-        <v>0.1464414330296164</v>
+        <v>0.1873174768611288</v>
       </c>
       <c r="H21">
-        <v>0.01521017139240686</v>
+        <v>0.1467026702670267</v>
       </c>
       <c r="I21">
-        <v>0.003811498328459933</v>
+        <v>0.1541674167416742</v>
       </c>
       <c r="J21">
-        <v>0.004796689830544585</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>-0.0836843684368437</v>
+      </c>
+      <c r="Q21">
+        <v>-0.02106210621062106</v>
+      </c>
+      <c r="R21">
+        <v>-0.02106210621062106</v>
+      </c>
+      <c r="T21">
+        <v>0.1144194419441944</v>
+      </c>
+      <c r="U21">
+        <v>0.1144194419441944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C22">
-        <v>-0.02147967839518713</v>
+        <v>0.003432343234323432</v>
       </c>
       <c r="E22">
-        <v>0.004704791420191656</v>
+        <v>0.1864146414641464</v>
       </c>
       <c r="F22">
-        <v>0.02120965088541666</v>
+        <v>-0.07208615933328519</v>
       </c>
       <c r="G22">
-        <v>-0.02201921197310802</v>
+        <v>0.1478379817219094</v>
       </c>
       <c r="H22">
-        <v>-0.006076053555042141</v>
+        <v>-0.07068706870687069</v>
       </c>
       <c r="I22">
-        <v>-0.01083848654553946</v>
+        <v>-0.02807080708070807</v>
       </c>
       <c r="J22">
-        <v>-0.1237713250431427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>-0.07787578757875786</v>
+      </c>
+      <c r="Q22">
+        <v>-0.1215001500150015</v>
+      </c>
+      <c r="R22">
+        <v>-0.1215001500150015</v>
+      </c>
+      <c r="T22">
+        <v>0.01126912691269127</v>
+      </c>
+      <c r="U22">
+        <v>0.01126912691269127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C23">
-        <v>0.04897448941497957</v>
+        <v>0.1663726372637263</v>
       </c>
       <c r="E23">
-        <v>0.5407380433255217</v>
+        <v>0.5599519951995199</v>
       </c>
       <c r="F23">
-        <v>0.0847066853041618</v>
+        <v>-0.09378628398976388</v>
       </c>
       <c r="G23">
-        <v>0.1125817847247854</v>
+        <v>0.2980473747242312</v>
       </c>
       <c r="H23">
-        <v>-0.007904735740189428</v>
+        <v>-0.005436543654365436</v>
       </c>
       <c r="I23">
-        <v>-0.01244677700987108</v>
+        <v>0.03531953195319532</v>
       </c>
       <c r="J23">
-        <v>0.04790272839878973</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>-0.08464446444644463</v>
+      </c>
+      <c r="Q23">
+        <v>0.00012001200120012</v>
+      </c>
+      <c r="R23">
+        <v>0.00012001200120012</v>
+      </c>
+      <c r="T23">
+        <v>0.2026882688268827</v>
+      </c>
+      <c r="U23">
+        <v>0.2026882688268827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C24">
-        <v>0.04037097348683893</v>
+        <v>0.02359435943594359</v>
       </c>
       <c r="E24">
-        <v>0.666858876658355</v>
+        <v>0.5524152415241523</v>
       </c>
       <c r="F24">
-        <v>-0.1390592170952088</v>
+        <v>-0.05043304534547303</v>
       </c>
       <c r="G24">
-        <v>0.2234100199735412</v>
+        <v>0.1898930096188425</v>
       </c>
       <c r="H24">
-        <v>0.03476849111873964</v>
+        <v>-0.09950195019501949</v>
       </c>
       <c r="I24">
-        <v>0.0122876524915061</v>
+        <v>-0.1686768676867687</v>
       </c>
       <c r="J24">
-        <v>0.01736423846274055</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0.1419261926192619</v>
+      </c>
+      <c r="Q24">
+        <v>-0.07998799879987999</v>
+      </c>
+      <c r="R24">
+        <v>-0.07998799879987999</v>
+      </c>
+      <c r="T24">
+        <v>0.0721992199219922</v>
+      </c>
+      <c r="U24">
+        <v>0.0721992199219922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>-0.01146213962648558</v>
+        <v>0.0471047104710471</v>
       </c>
       <c r="E25">
-        <v>-0.01494831899793276</v>
+        <v>0.1819501950195019</v>
       </c>
       <c r="F25">
-        <v>-0.5104553437580174</v>
+        <v>-0.6129156959407235</v>
       </c>
       <c r="G25">
-        <v>0.8924138541708527</v>
+        <v>0.9261531746718294</v>
       </c>
       <c r="H25">
-        <v>-0.1500155484966219</v>
+        <v>-0.184974497449745</v>
       </c>
       <c r="I25">
-        <v>0.01928701613148064</v>
+        <v>-0.03782778277827783</v>
       </c>
       <c r="J25">
-        <v>-0.4942109135123781</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>-0.5048304830483048</v>
+      </c>
+      <c r="Q25">
+        <v>0.06321032103210321</v>
+      </c>
+      <c r="R25">
+        <v>0.06321032103210321</v>
+      </c>
+      <c r="T25">
+        <v>0.7862466246624662</v>
+      </c>
+      <c r="U25">
+        <v>0.7862466246624662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>0.05068191034727641</v>
+        <v>0.09768976897689767</v>
       </c>
       <c r="E26">
-        <v>0.02958810358352414</v>
+        <v>-0.1342694269426943</v>
       </c>
       <c r="F26">
-        <v>-0.008757739986207633</v>
+        <v>0.1278972251742113</v>
       </c>
       <c r="G26">
-        <v>0.004536753338062172</v>
+        <v>-0.1013943420629981</v>
       </c>
       <c r="H26">
-        <v>-0.08124367313774691</v>
+        <v>-0.07037503750375036</v>
       </c>
       <c r="I26">
-        <v>0.0122017175120687</v>
+        <v>0.03353135313531352</v>
       </c>
       <c r="J26">
-        <v>-0.01189597782039832</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>-0.01291329132913291</v>
+      </c>
+      <c r="Q26">
+        <v>0.000108010801080108</v>
+      </c>
+      <c r="R26">
+        <v>0.000108010801080108</v>
+      </c>
+      <c r="T26">
+        <v>-0.07252325232523252</v>
+      </c>
+      <c r="U26">
+        <v>-0.07252325232523252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C27">
-        <v>0.02163415651336626</v>
+        <v>-0.08702070207020701</v>
       </c>
       <c r="E27">
-        <v>-0.02369761131590445</v>
+        <v>0.1223642364236424</v>
       </c>
       <c r="F27">
-        <v>0.002089343635682739</v>
+        <v>0.07505723359301103</v>
       </c>
       <c r="G27">
-        <v>-0.009033920230091431</v>
+        <v>0.05403815932909267</v>
       </c>
       <c r="H27">
-        <v>-0.02189330737173229</v>
+        <v>-0.1293009300930093</v>
       </c>
       <c r="I27">
-        <v>-0.02272702074908083</v>
+        <v>-0.1563276327632763</v>
       </c>
       <c r="J27">
-        <v>0.009066919335297925</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>0.2026042604260426</v>
+      </c>
+      <c r="Q27">
+        <v>-0.05078907890789078</v>
+      </c>
+      <c r="R27">
+        <v>-0.05078907890789078</v>
+      </c>
+      <c r="T27">
+        <v>0.02232223222322232</v>
+      </c>
+      <c r="U27">
+        <v>0.02232223222322232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C28">
-        <v>-0.01430231654009266</v>
+        <v>0.1842904290429042</v>
       </c>
       <c r="E28">
-        <v>-0.003799220407968816</v>
+        <v>0.002316231623162316</v>
       </c>
       <c r="F28">
-        <v>-0.007983339829158236</v>
+        <v>-0.04229079753242686</v>
       </c>
       <c r="G28">
-        <v>-0.04299915204312366</v>
+        <v>-0.06755820541387399</v>
       </c>
       <c r="H28">
-        <v>0.01765087491403499</v>
+        <v>0.08507650765076506</v>
       </c>
       <c r="I28">
-        <v>0.009357163574286542</v>
+        <v>0.07887188718871886</v>
       </c>
       <c r="J28">
-        <v>0.0148018046286763</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>-0.01886588658865886</v>
+      </c>
+      <c r="Q28">
+        <v>0.01894989498949895</v>
+      </c>
+      <c r="R28">
+        <v>0.01894989498949895</v>
+      </c>
+      <c r="T28">
+        <v>-0.03621962196219622</v>
+      </c>
+      <c r="U28">
+        <v>-0.03621962196219622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C29">
-        <v>0.01216380778255231</v>
+        <v>-0.02672667266726672</v>
       </c>
       <c r="E29">
-        <v>0.00386265826650633</v>
+        <v>0.01914191419141914</v>
       </c>
       <c r="F29">
-        <v>-0.009135746133200836</v>
+        <v>-0.003986504702923296</v>
       </c>
       <c r="G29">
-        <v>0.001649039088448584</v>
+        <v>0.04889309738652712</v>
       </c>
       <c r="H29">
-        <v>-0.006919305876772234</v>
+        <v>-0.04861686168616861</v>
       </c>
       <c r="I29">
-        <v>-0.007644891473795657</v>
+        <v>-0.08954095409540953</v>
       </c>
       <c r="J29">
-        <v>0.004884486250178655</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>-0.06874287428742873</v>
+      </c>
+      <c r="Q29">
+        <v>-0.01675367536753675</v>
+      </c>
+      <c r="R29">
+        <v>-0.01675367536753675</v>
+      </c>
+      <c r="T29">
+        <v>0.04862886288628862</v>
+      </c>
+      <c r="U29">
+        <v>0.04862886288628862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C30">
-        <v>0.003417417640696705</v>
+        <v>-0.01898589858985899</v>
       </c>
       <c r="E30">
-        <v>0.0009465775098631003</v>
+        <v>-0.01822982298229823</v>
       </c>
       <c r="F30">
-        <v>0.009835316678522287</v>
+        <v>-0.1517880469905512</v>
       </c>
       <c r="G30">
-        <v>4.97576630201594E-05</v>
+        <v>0.09839855920495819</v>
       </c>
       <c r="H30">
-        <v>0.003249119553964782</v>
+        <v>0.01172517251725172</v>
       </c>
       <c r="I30">
-        <v>0.002834183729367349</v>
+        <v>0.04846084608460845</v>
       </c>
       <c r="J30">
-        <v>0.004239992143501754</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>-0.170957095709571</v>
+      </c>
+      <c r="Q30">
+        <v>0.05357335733573356</v>
+      </c>
+      <c r="R30">
+        <v>0.05357335733573356</v>
+      </c>
+      <c r="T30">
+        <v>0.1007740774077408</v>
+      </c>
+      <c r="U30">
+        <v>0.1007740774077408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C31">
-        <v>-0.003969184094767363</v>
+        <v>-0.05274527452745274</v>
       </c>
       <c r="E31">
-        <v>0.009822254600890182</v>
+        <v>-0.09663366336633664</v>
       </c>
       <c r="F31">
-        <v>0.01184059747915064</v>
+        <v>0.2561799378314883</v>
       </c>
       <c r="G31">
-        <v>-0.007277586171207056</v>
+        <v>-0.1528929900715479</v>
       </c>
       <c r="H31">
-        <v>0.01928489414739576</v>
+        <v>0.08740474047404739</v>
       </c>
       <c r="I31">
-        <v>0.01635504967820198</v>
+        <v>0.1103630363036304</v>
       </c>
       <c r="J31">
-        <v>-0.01680598245563322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>-0.01072907290729073</v>
+      </c>
+      <c r="Q31">
+        <v>0.1068946894689469</v>
+      </c>
+      <c r="R31">
+        <v>0.1068946894689469</v>
+      </c>
+      <c r="T31">
+        <v>-0.05702970297029702</v>
+      </c>
+      <c r="U31">
+        <v>-0.05702970297029702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C32">
-        <v>0.01078553428742137</v>
+        <v>-0.1007260726072607</v>
       </c>
       <c r="E32">
-        <v>-0.00061781100071244</v>
+        <v>-0.01545754575457545</v>
       </c>
       <c r="F32">
-        <v>0.00626256612405528</v>
+        <v>0.003506995882524504</v>
       </c>
       <c r="G32">
-        <v>-0.0129040769835575</v>
+        <v>0.01466672850138578</v>
       </c>
       <c r="H32">
-        <v>0.001174167886966715</v>
+        <v>-0.001764176417641764</v>
       </c>
       <c r="I32">
-        <v>0.0032590325143613</v>
+        <v>0.03417941794179417</v>
       </c>
       <c r="J32">
-        <v>0.002631942204941352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>-0.02162616261626163</v>
+      </c>
+      <c r="Q32">
+        <v>-0.01759375937593759</v>
+      </c>
+      <c r="R32">
+        <v>-0.01759375937593759</v>
+      </c>
+      <c r="T32">
+        <v>-0.02544254425442544</v>
+      </c>
+      <c r="U32">
+        <v>-0.02544254425442544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>0.004489309811572392</v>
+        <v>-0.05641764176417641</v>
       </c>
       <c r="E33">
-        <v>-0.002604154952166197</v>
+        <v>-0.008628862886288629</v>
       </c>
       <c r="F33">
-        <v>-0.002559159286961052</v>
+        <v>0.05651622587092438</v>
       </c>
       <c r="G33">
-        <v>-0.01194171986787599</v>
+        <v>0.002347396988965141</v>
       </c>
       <c r="H33">
-        <v>-0.002384649791385991</v>
+        <v>-0.2570897089708971</v>
       </c>
       <c r="I33">
-        <v>-0.005349035637961424</v>
+        <v>-0.1965796579657966</v>
       </c>
       <c r="J33">
-        <v>-0.003487439280352086</v>
+        <v>0.1678367836783678</v>
+      </c>
+      <c r="Q33">
+        <v>-0.2507170717071707</v>
+      </c>
+      <c r="R33">
+        <v>-0.2507170717071707</v>
+      </c>
+      <c r="T33">
+        <v>-0.131017101710171</v>
+      </c>
+      <c r="U33">
+        <v>-0.131017101710171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>0.1341494149414942</v>
+      </c>
+      <c r="E34">
+        <v>0.06814281428142813</v>
+      </c>
+      <c r="F34">
+        <v>0.01317238936036683</v>
+      </c>
+      <c r="G34">
+        <v>0.06343375085781502</v>
+      </c>
+      <c r="H34">
+        <v>0.2147854785478548</v>
+      </c>
+      <c r="I34">
+        <v>0.2484968496849685</v>
+      </c>
+      <c r="J34">
+        <v>-0.1115271527152715</v>
+      </c>
+      <c r="Q34">
+        <v>0.964092409240924</v>
+      </c>
+      <c r="R34">
+        <v>0.964092409240924</v>
+      </c>
+      <c r="T34">
+        <v>0.5383978397839783</v>
+      </c>
+      <c r="U34">
+        <v>0.5383978397839783</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2_agile.xlsx
@@ -624,12 +624,12 @@
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP [kg*CO2*eq / gal]</t>
+          <t>Crude glycerol GWP [kg*CO2*eq / kg]</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP derivative [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP derivative [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
     </row>
@@ -712,32 +712,32 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2157695769576957</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-0.03282328232823282</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.002038889869649483</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02163816381638164</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07529552955295529</v>
+        <v>-0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07625562556255625</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008616861686168617</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004476447644764477</v>
+        <v>-0.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004476447644764477</v>
+        <v>-0.2</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -762,32 +762,32 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.08525652565256525</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.09927392739273926</v>
+        <v>0.7</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1410086227028136</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1229402940294029</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1079507950795079</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1110951095109511</v>
+        <v>-0.2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01952595259525952</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.07495949594959495</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.07495949594959495</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -812,32 +812,32 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1497029702970297</v>
+        <v>-0.2</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.07339933993399339</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3077723021026106</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2585058505850585</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9657485748574857</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9742574257425741</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1773537353735373</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2793759375937594</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2793759375937594</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -866,32 +866,32 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9394179417941794</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.08333633363336332</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01634864453761886</v>
+        <v>-0.6</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002208220822082208</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02221422142214221</v>
+        <v>-0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00204020402040204</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.09152115211521152</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.02354635463546354</v>
+        <v>0.3</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02354635463546354</v>
+        <v>0.3</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -920,32 +920,32 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.07689168916891688</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-0.1460666066606661</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.07034795476631099</v>
+        <v>-0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08698469846984698</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003000300030003</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005976597659765976</v>
+        <v>0.2</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1922352235223522</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1388178817881788</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1388178817881788</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -974,32 +974,32 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.07193519351935193</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.1327572757275727</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1177177457869404</v>
+        <v>0.7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04082808280828083</v>
+        <v>-0.3</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.005928592859285928</v>
+        <v>-0.6</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03785178517851785</v>
+        <v>-0.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.007884788478847883</v>
+        <v>0.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06027002700270027</v>
+        <v>-0.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06027002700270027</v>
+        <v>-0.6</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1028,32 +1028,32 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.03738373837383738</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.162052205220522</v>
+        <v>-0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02681828147563491</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02065406540654065</v>
+        <v>-0.6</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.07084308430843082</v>
+        <v>-0.7</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04612061206120611</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09584158415841583</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03546354635463546</v>
+        <v>-0.7</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03546354635463546</v>
+        <v>-0.7</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1078,32 +1078,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1144314431443144</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-0.04867686768676868</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1613099617116548</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03569156915691568</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.02496249624962496</v>
+        <v>-0.3</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1783978397839784</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.06262226222622262</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02223822382238224</v>
+        <v>0.3</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02223822382238224</v>
+        <v>0.3</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1128,32 +1128,32 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2262226222622262</v>
+        <v>-0.3</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>-0.06366636663666365</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2493950074912355</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06118211821182118</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.08702070207020701</v>
+        <v>0.3</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1013261326132613</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06177017701770177</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01842184218421842</v>
+        <v>0.3</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.01842184218421842</v>
+        <v>0.3</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1182,32 +1182,32 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.00384038403840384</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.0173057305730573</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06085398291929284</v>
+        <v>0.3</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.06015001500150014</v>
+        <v>-0.3</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01767776777677768</v>
+        <v>-0.6</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01347734773477348</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01120912091209121</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1016741674167417</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1016741674167417</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1236,32 +1236,32 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.008928892889288928</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>-0.1112751275127513</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1049340313895062</v>
+        <v>-0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06516651665166516</v>
+        <v>-0.7</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03288328832883288</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0302070207020702</v>
+        <v>-0.3</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1551515151515151</v>
+        <v>0.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1588838883888389</v>
+        <v>-0.4</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1588838883888389</v>
+        <v>-0.4</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1290,32 +1290,32 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1006540654065406</v>
+        <v>0.6</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.06802280228022801</v>
+        <v>0.7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01428473761435405</v>
+        <v>0.2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04824482448244824</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01618961896189619</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04292829282928293</v>
+        <v>-0.2</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06564656465646564</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002904290429042904</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002904290429042904</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1344,32 +1344,32 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.07812781278127812</v>
+        <v>-0.6</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.1582598259825982</v>
+        <v>-0.7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1379940677421662</v>
+        <v>-0.2</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1434143414341434</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06399039903990399</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04168016801680167</v>
+        <v>0.2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06634263426342633</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.08175217521752175</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.08175217521752175</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1394,32 +1394,32 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.06472247224722472</v>
+        <v>-0.3</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.006552655265526551</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05702637371614719</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.03455145514551455</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05130513051305131</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.07153915391539153</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1698049804980498</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01932193219321932</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01932193219321932</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1448,32 +1448,32 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.08090009000900089</v>
+        <v>0.7</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-0.08213621362136211</v>
+        <v>0.6</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.03942687649776178</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.09972997299729973</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1657845784578457</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.02761476147614761</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01843384338433843</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.09376537653765375</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.09376537653765375</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1502,32 +1502,32 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1295769576957696</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.3462826282628263</v>
+        <v>-0.4</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0299829387579743</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2324272427242724</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.03443144314431443</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002796279627962796</v>
+        <v>0.6</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.02658265826582658</v>
+        <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1663726372637263</v>
+        <v>0.3</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1663726372637263</v>
+        <v>0.3</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1552,32 +1552,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.008736873687368736</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.233051305130513</v>
+        <v>0.3</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.06953490052381273</v>
+        <v>0.2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07263126312631263</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01485748574857486</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01389738973897389</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2698709870987098</v>
+        <v>-0.2</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.04102010201020101</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.04102010201020101</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1602,32 +1602,32 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05839783978397839</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.3506990699069907</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2201250547612982</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1924272427242724</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06261026102610261</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>0.117971797179718</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.004836483648364837</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1232403240324032</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1232403240324032</v>
+        <v>0</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1652,32 +1652,32 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.007404740474047404</v>
+        <v>0.2</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0.01623762376237624</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07311233919080508</v>
+        <v>-0.6</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1089108910891089</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1337653765376537</v>
+        <v>0.7</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1066306630663066</v>
+        <v>0.6</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03885988598859886</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1046384638463846</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1046384638463846</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1706,32 +1706,32 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.02087008700870087</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0.5229162916291629</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.05412439549676878</v>
+        <v>0.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.23002700270027</v>
+        <v>0.2</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.05885388538853884</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.07461146114611461</v>
+        <v>0.2</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1921032103210321</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02066606660666066</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02066606660666066</v>
+        <v>0</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1756,32 +1756,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05276927692769277</v>
+        <v>0.6</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.6464326432643263</v>
+        <v>0.3</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.07766544294879534</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.114011401140114</v>
+        <v>0.2</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0686108610861086</v>
+        <v>-0.6</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09278127812781277</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2049204920492049</v>
+        <v>-0.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.007716771677167716</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>0.007716771677167716</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -1810,32 +1810,32 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.05557755775577557</v>
+        <v>0.3</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.1011101110111011</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09562768744460304</v>
+        <v>0.4</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9231323132313229</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1062826282628263</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2388598859885989</v>
+        <v>0.6</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.7263486348634862</v>
+        <v>-0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8259105910591058</v>
+        <v>0.7</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8259105910591058</v>
+        <v>0.7</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1860,32 +1860,32 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.05551755175517551</v>
+        <v>-0.6</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0.07686768676867686</v>
+        <v>-0.3</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04115305319721962</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1142994299429943</v>
+        <v>-0.2</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1308970897089709</v>
+        <v>0.6</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0586978697869787</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.07876387638763875</v>
+        <v>0.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1197599759975997</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1197599759975997</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1914,32 +1914,32 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.09400540054005399</v>
+        <v>0.4</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>-0.111995199519952</v>
+        <v>0.2</v>
       </c>
       <c r="F27" t="n">
-        <v>0.129062979601493</v>
+        <v>-0.3</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06094209420942093</v>
+        <v>0.2</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1167476747674767</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>0.13002100210021</v>
+        <v>0.3</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.06066606660666066</v>
+        <v>-0.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02702670267026703</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02702670267026703</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -1968,32 +1968,32 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.2044044404440444</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>0.02629462946294629</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1898294028331322</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1671287128712871</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.05561356135613561</v>
+        <v>-0.2</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.05557755775577557</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>0.08123612361236122</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.1686288628862886</v>
+        <v>-0.2</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.1686288628862886</v>
+        <v>-0.2</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2022,32 +2022,32 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.03708370837083708</v>
+        <v>-0.3</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0.05749774977497749</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1097373056836498</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.02871887188718871</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1305970597059706</v>
+        <v>-0.2</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1531833183318331</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02927092709270927</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.1086948694869487</v>
+        <v>-0.2</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.1086948694869487</v>
+        <v>-0.2</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2076,32 +2076,32 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1899189918991899</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.005400540054005401</v>
+        <v>-0.7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02710597759221122</v>
+        <v>-0.3</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01135313531353135</v>
+        <v>-0.7</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03981998199819981</v>
+        <v>-0.4</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02935493549354935</v>
+        <v>-0.7</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08416441644164416</v>
+        <v>0.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.09362136213621361</v>
+        <v>-0.6</v>
       </c>
       <c r="L30" t="n">
-        <v>0.09362136213621361</v>
+        <v>-0.6</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2130,32 +2130,32 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.01976597659765976</v>
+        <v>0.3</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-0.03275127512751275</v>
+        <v>-0.6</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1172674388218644</v>
+        <v>-0.6</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06982298229822982</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.03083108310831083</v>
+        <v>0.3</v>
       </c>
       <c r="I31" t="n">
-        <v>0.003516351635163516</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.1291329132913291</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.07067506750675066</v>
+        <v>0.2</v>
       </c>
       <c r="L31" t="n">
-        <v>0.07067506750675066</v>
+        <v>0.2</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2184,32 +2184,32 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01456945694569457</v>
+        <v>-0.6</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-0.07885988598859886</v>
+        <v>0.7</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.05636342179534092</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.06765076507650764</v>
+        <v>0.3</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.1495469546954696</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1543354335433543</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.03933993399339934</v>
+        <v>0.2</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.04996099609960995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.04996099609960995</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2238,32 +2238,32 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.03455145514551455</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-0.03384338433843384</v>
+        <v>-0.2</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00347737045253102</v>
+        <v>-0.7</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02993099309930993</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.03193519351935194</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.03878787878787878</v>
+        <v>-0.3</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02639063906390639</v>
+        <v>-0.7</v>
       </c>
       <c r="K33" t="n">
-        <v>0.06393039303930392</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06393039303930392</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2292,32 +2292,32 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.1291809180918092</v>
+        <v>-0.6</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-0.2280588058805881</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1646497383693014</v>
+        <v>0.3</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.1227002700270027</v>
+        <v>0.2</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.09348934893489348</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.08427242724272427</v>
+        <v>0.7</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.07026702670267025</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.09810981098109808</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.09810981098109808</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2346,32 +2346,32 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.03342334233423342</v>
+        <v>-0.6</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0.04357635763576357</v>
+        <v>0.3</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1696156235119447</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04526852685268527</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02203420342034203</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01275727572757276</v>
+        <v>-0.3</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0057005700570057</v>
+        <v>0.3</v>
       </c>
       <c r="K35" t="n">
-        <v>0.09659765976597659</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>0.09659765976597659</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2400,32 +2400,32 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.005808580858085808</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>0.118991899189919</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02120195293899309</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.03743174317431743</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.0935133513351335</v>
+        <v>-0.2</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.07734773477347733</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1465346534653465</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.04678067806780677</v>
+        <v>-0.2</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.04678067806780677</v>
+        <v>-0.2</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -2454,32 +2454,32 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.08309630963096309</v>
+        <v>0.6</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>0.07337533753375337</v>
+        <v>-0.3</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.02828177911213179</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>0.202064206420642</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.02712271227122712</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02844284428442844</v>
+        <v>0.3</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.1714131413141314</v>
+        <v>-0.3</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6119891989198919</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6119891989198919</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2_agile.xlsx
@@ -712,32 +712,32 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0.02455033557401342</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01019041826361673</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02648116690668782</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.009432948185317926</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2</v>
+        <v>-0.007454952298198091</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.007427469321098772</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01107467010109374</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2</v>
+        <v>-0.001467088186683527</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2</v>
+        <v>-0.001467088186683527</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -762,32 +762,32 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>0.01464410160976406</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.7</v>
+        <v>-0.004178975975159039</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2</v>
+        <v>-0.01681014962782021</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.002819570800782832</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.003212298080491923</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2</v>
+        <v>0.00101141024845641</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.001525686900462027</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.009007831272313249</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.009007831272313249</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -812,32 +812,32 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.2</v>
+        <v>0.1530165463446618</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.09999999999999999</v>
+        <v>-7.106505884260234e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01549008772645625</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.06380128690405146</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.966669726986789</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.974571654918866</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.006977525090275789</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.07899203749568148</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.07899203749568148</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -866,32 +866,32 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9456546143061845</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.001093746571749863</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6</v>
+        <v>-0.01709427324896718</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>0.02196663092666523</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2</v>
+        <v>-0.000286105451444218</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.002638555305542212</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.01567194945959912</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3</v>
+        <v>0.02825650173826006</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3</v>
+        <v>0.02825650173826006</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -920,32 +920,32 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01014933544597342</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.0013007600200304</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2</v>
+        <v>-0.007837143898677823</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>-0.02266414093856563</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.009474055194962206</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2</v>
+        <v>-0.0102946025557841</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.0247869780282071</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.02226258108250324</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.02226258108250324</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -974,32 +974,32 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01592602412504096</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>-0.02885017133000685</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7</v>
+        <v>0.005964544896097579</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3</v>
+        <v>0.000755193150207726</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6</v>
+        <v>0.02275049659001986</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.7</v>
+        <v>0.02904841143393645</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3</v>
+        <v>-0.009088152215120108</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.6</v>
+        <v>-0.0004033591841343673</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.6</v>
+        <v>-0.0004033591841343673</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1028,32 +1028,32 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-0.00992520654100826</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-0.4</v>
+        <v>0.008214022984560919</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02724194111205724</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.6</v>
+        <v>-0.02319874643194986</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7</v>
+        <v>0.000772087902883516</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.001164699886587995</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.02493779067655609</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.7</v>
+        <v>-0.02196389147055566</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.7</v>
+        <v>-0.02196389147055566</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1078,32 +1078,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.08232991481319657</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0.001404532472181298</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.008527136913664069</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.003117734140709365</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3</v>
+        <v>-0.0005057070922282837</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.2132218491688739</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.001378179868296037</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3</v>
+        <v>-0.008157987878319515</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3</v>
+        <v>-0.008157987878319515</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1128,32 +1128,32 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.3</v>
+        <v>-0.2287944059837762</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0.6</v>
+        <v>-0.00560029827201193</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.009748251531377976</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>-0.01432076918083077</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3</v>
+        <v>0.01106807929072317</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.006233193849327753</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.005949471305362731</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3</v>
+        <v>-0.01820488440819538</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3</v>
+        <v>-0.01820488440819538</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1182,32 +1182,32 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009486650779466031</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.008544032597761304</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3</v>
+        <v>-0.01308978040459856</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3</v>
+        <v>0.0227626574865063</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6</v>
+        <v>0.01007426593897063</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.009781065223242607</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-0.02505672777114045</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02421867533674701</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02421867533674701</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1236,32 +1236,32 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.004989680071587202</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.01254400629376025</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2</v>
+        <v>0.00472752236151342</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7</v>
+        <v>0.01404523841780953</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.0002265219930608797</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3</v>
+        <v>-0.006288456731538269</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7</v>
+        <v>-0.01694396378601784</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.4</v>
+        <v>0.01628555700342228</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.4</v>
+        <v>0.01628555700342228</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1290,32 +1290,32 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6</v>
+        <v>-0.0001362018294480732</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.7</v>
+        <v>0.01684522454580898</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2</v>
+        <v>0.01685252186242044</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.005133064813322592</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02325654803426192</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2</v>
+        <v>-0.01113809343752374</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.009367268294571974</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01078040433521617</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01078040433521617</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1344,32 +1344,32 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.6</v>
+        <v>-0.03938617280744691</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.7</v>
+        <v>0.001495806779832271</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2</v>
+        <v>0.0007404414834143334</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.004963548102541923</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.00702788130511525</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2</v>
+        <v>0.0114335949853438</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.001605701032891609</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0002416810656672426</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0002416810656672426</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1394,32 +1394,32 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.3</v>
+        <v>-0.001290591123623645</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01045829801833192</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.003075790257366863</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.01623999645759986</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.0007764075190563007</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.006991911447676457</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.003458136047442412</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-0.01729266040370641</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-0.01729266040370641</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1448,32 +1448,32 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7</v>
+        <v>-0.06876686982267478</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0.6</v>
+        <v>-0.0004178030567121223</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.01043349430252854</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01537200570288023</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.1773254336530173</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.005049995625999825</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.01492339469815913</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.01287379040295161</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.01287379040295161</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1502,32 +1502,32 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.001225353169014127</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>-0.4</v>
+        <v>0.2705563228542529</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.0338737311325253</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.1287614175024567</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.01018742335149693</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6</v>
+        <v>-0.005374445494977819</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>-0.01999229179477327</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3</v>
+        <v>0.05050076678803066</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3</v>
+        <v>0.05050076678803066</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1552,32 +1552,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.02273164938926597</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.3</v>
+        <v>0.1417435430457417</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2</v>
+        <v>0.0001457701439256677</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>0.05252202978088119</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01402793441711738</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.006784460047378401</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.2</v>
+        <v>0.1926733089703944</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.007773745366949813</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.007773745366949813</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1602,32 +1602,32 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.01898022402320896</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.335977128575085</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.005235767566532368</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1498776474671059</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.002474408834976353</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.0100263775850551</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.0136855725976333</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0376577649303106</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.0376577649303106</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1652,32 +1652,32 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2</v>
+        <v>0.01042183990487359</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.00587186826687473</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6</v>
+        <v>-0.01362957966229386</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.02030584324423373</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7</v>
+        <v>-0.01601430688057227</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6</v>
+        <v>-0.01796197329447893</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.07120574107794983</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.02495834307833372</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.02495834307833372</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1706,32 +1706,32 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.06600675700827027</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.533624525312981</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3</v>
+        <v>0.006205855296750791</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2</v>
+        <v>0.06955707715028309</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01316994887879795</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2</v>
+        <v>-0.01193964566158582</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.2774531751838077</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.1172409687216387</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.1172409687216387</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1756,32 +1756,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.6</v>
+        <v>0.05635084718203388</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>0.6926405649216225</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.009207111191933714</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2</v>
+        <v>0.186246802233872</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.6</v>
+        <v>0.04817383767095351</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02275960987038439</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.7</v>
+        <v>0.2656324961934149</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02873688287747531</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02873688287747531</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -1810,32 +1810,32 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3</v>
+        <v>0.003161172894446916</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.009410313208412527</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4</v>
+        <v>0.1695763258061972</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.9166893452115737</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>-0.1050090068883603</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6</v>
+        <v>0.01117785644711426</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.6</v>
+        <v>-0.7578122517604863</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7</v>
+        <v>0.7880981859239273</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7</v>
+        <v>0.7880981859239273</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1860,32 +1860,32 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.6</v>
+        <v>0.01436117020644681</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>-0.3</v>
+        <v>0.0145409801336392</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-0.00719100402846957</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2</v>
+        <v>0.02410480867619234</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6</v>
+        <v>-0.1013256412050256</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.009274533202981328</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7</v>
+        <v>-0.009564616273497157</v>
       </c>
       <c r="K26" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.03200585158423406</v>
       </c>
       <c r="L26" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.03200585158423406</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1914,32 +1914,32 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4</v>
+        <v>0.01694402659776106</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>0.2</v>
+        <v>0.005052450634098024</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3</v>
+        <v>0.001972155652167171</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2</v>
+        <v>-0.01183520197740808</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02201111214444448</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3</v>
+        <v>0.01994497692579908</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.3</v>
+        <v>0.02065051271121238</v>
       </c>
       <c r="K27" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.008479810707192427</v>
       </c>
       <c r="L27" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.008479810707192427</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -1968,32 +1968,32 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-0.002418436608737464</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.005870369130814766</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.004969138885129547</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.00548307525932301</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.2</v>
+        <v>-0.01309915194796608</v>
       </c>
       <c r="I28" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.008308641836345672</v>
       </c>
       <c r="J28" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.002511236347022044</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.2</v>
+        <v>0.003501771500070859</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.2</v>
+        <v>0.003501771500070859</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2022,32 +2022,32 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.3</v>
+        <v>-0.005007644936305796</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.001355801046232042</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.01186669170342747</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.0009178463407138534</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.2</v>
+        <v>0.0151094476123779</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01698371127134845</v>
       </c>
       <c r="J29" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002799715834992269</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.2</v>
+        <v>0.005682731939309277</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2</v>
+        <v>0.005682731939309277</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2076,32 +2076,32 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.005982485231299409</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>-0.7</v>
+        <v>-0.006512461412498455</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.3</v>
+        <v>-0.0007138140490690769</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.7</v>
+        <v>0.01395235726209429</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.4</v>
+        <v>-0.01589220101968804</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.7</v>
+        <v>-0.01571460946058437</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3</v>
+        <v>-0.0111717883144702</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.6</v>
+        <v>0.01254873227794929</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.6</v>
+        <v>0.01254873227794929</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2130,32 +2130,32 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3</v>
+        <v>0.01550320871612835</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-0.6</v>
+        <v>-0.005931957933278316</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6</v>
+        <v>0.003360170396149915</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.002390327231613089</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3</v>
+        <v>-0.01971188190847527</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.02022070112882804</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.005853794916066087</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2</v>
+        <v>0.009455513658220545</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2</v>
+        <v>0.009455513658220545</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2184,32 +2184,32 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.6</v>
+        <v>0.003049686265987451</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>0.7</v>
+        <v>-0.03278383091135323</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.00605591006264385</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3</v>
+        <v>-0.009301628436065136</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.008668813114752524</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0.01066486276259451</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2</v>
+        <v>-0.0134720519298128</v>
       </c>
       <c r="K32" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01277442521497701</v>
       </c>
       <c r="L32" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01277442521497701</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2238,32 +2238,32 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.02951376982055079</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-0.2</v>
+        <v>-0.008450440466017617</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.7</v>
+        <v>0.02830466373636202</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.002777470095098804</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.004568970902758836</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3</v>
+        <v>-0.0002478960099158403</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.7</v>
+        <v>-0.01056548501690525</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.004308363340334533</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.004308363340334533</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2292,32 +2292,32 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.6</v>
+        <v>-0.01490044158801766</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.01065178679407147</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3</v>
+        <v>-0.004716841276994344</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2</v>
+        <v>0.01787798538711941</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01089093105963724</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7</v>
+        <v>0.01112760610910424</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01400533363933527</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.01074414388576575</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.01074414388576575</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2346,32 +2346,32 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.6</v>
+        <v>0.01577463000698519</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>-0.002107728564309143</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.01064415958494759</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-0.01968373192334927</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.01766856886674275</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.3</v>
+        <v>0.02121788081671523</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3</v>
+        <v>0.009310800083445892</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.03012310738092429</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.03012310738092429</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2400,32 +2400,32 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.02530358232414329</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01070888318035533</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01020016186849416</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.009957117806284711</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.2</v>
+        <v>-0.004826725345069013</v>
       </c>
       <c r="I36" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002243779097751163</v>
       </c>
       <c r="J36" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.006197942983118124</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.2</v>
+        <v>0.0003434231177369246</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.2</v>
+        <v>0.0003434231177369246</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -2454,32 +2454,32 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.6</v>
+        <v>0.01765646153825846</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-0.3</v>
+        <v>-0.02688195937927837</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.005663310813730666</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-0.01167107297884292</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-0.01476320151852806</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3</v>
+        <v>-0.01429813353192534</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.3</v>
+        <v>-0.003076005386287658</v>
       </c>
       <c r="K37" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.4975845231673808</v>
       </c>
       <c r="L37" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.4975845231673808</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2_agile.xlsx
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0005013420680536826</v>
+        <v>0.0005528341661133665</v>
       </c>
       <c r="D4" t="n">
         <v>0.001852952042118082</v>
@@ -743,33 +743,35 @@
       <c r="F4" t="n">
         <v>0.001528792093151683</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.118909396892067</v>
+      </c>
       <c r="H4" t="n">
-        <v>-0.01741217954448718</v>
+        <v>-0.01740805317632212</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005880340651213625</v>
+        <v>0.005650571746022869</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01758890499055473</v>
+        <v>0.01744864648341366</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01829519871580795</v>
+        <v>-0.01828565717942628</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.01829519871580795</v>
+        <v>-0.01828565717942628</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.01829519871580795</v>
+        <v>-0.01828605039544201</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.01829519871580795</v>
+        <v>-0.01828605039544201</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.01829519871580795</v>
+        <v>-0.01828605039544201</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -793,7 +795,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.007357113030284521</v>
+        <v>-0.007365270438610816</v>
       </c>
       <c r="D5" t="n">
         <v>-0.01802875377715015</v>
@@ -802,33 +804,35 @@
       <c r="F5" t="n">
         <v>0.02083652944146118</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0.003040800275462255</v>
+      </c>
       <c r="H5" t="n">
-        <v>0.002597273863890954</v>
+        <v>0.002608708328348333</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009456743610269743</v>
+        <v>-0.009437027225481088</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01167530292910374</v>
+        <v>0.01210791562755604</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.006711702412468096</v>
+        <v>-0.006688002891520115</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.006711702412468096</v>
+        <v>-0.006688002891520115</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>-0.006711702412468096</v>
+        <v>-0.006688209099528363</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.006711702412468096</v>
+        <v>-0.006688209099528363</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.006711702412468096</v>
+        <v>-0.006688209099528363</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -852,7 +856,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1655295592291824</v>
+        <v>0.1655265602850624</v>
       </c>
       <c r="D6" t="n">
         <v>0.9745858367114333</v>
@@ -861,33 +865,35 @@
       <c r="F6" t="n">
         <v>-0.005353888054155521</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0.01064335649687672</v>
+      </c>
       <c r="H6" t="n">
-        <v>0.0004688811067552442</v>
+        <v>0.0004648065785922631</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9556792952831717</v>
+        <v>0.9556733965629357</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01254979986551229</v>
+        <v>-0.01254987964001146</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0006067848242713929</v>
+        <v>-0.0006164646006585839</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0006067848242713929</v>
+        <v>-0.0006164646006585839</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>-0.0006067848242713929</v>
+        <v>-0.0006163996086559842</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.0006067848242713929</v>
+        <v>-0.0006163996086559842</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.0006067848242713929</v>
+        <v>-0.0006163996086559842</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -915,7 +921,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9568921403236855</v>
+        <v>0.9568921447396858</v>
       </c>
       <c r="D7" t="n">
         <v>0.02393805868552234</v>
@@ -924,33 +930,35 @@
       <c r="F7" t="n">
         <v>0.01256839912673596</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0.01125821959299577</v>
+      </c>
       <c r="H7" t="n">
-        <v>0.01597036143881446</v>
+        <v>0.01597103679884147</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02406036969841479</v>
+        <v>0.02405144525005781</v>
       </c>
       <c r="J7" t="n">
-        <v>0.009916436079649794</v>
+        <v>0.009919488926656377</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01330080898003236</v>
+        <v>0.01329747595589904</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01330080898003236</v>
+        <v>0.01329747595589904</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0.01330080898003236</v>
+        <v>0.01329764040390562</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01330080898003236</v>
+        <v>0.01329764040390562</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01330080898003236</v>
+        <v>0.01329764040390562</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -978,7 +986,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.02814485094979403</v>
+        <v>-0.02814850912594036</v>
       </c>
       <c r="D8" t="n">
         <v>-0.01610414560416582</v>
@@ -987,33 +995,35 @@
       <c r="F8" t="n">
         <v>0.009675019779000791</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>-0.02701198348594588</v>
+      </c>
       <c r="H8" t="n">
-        <v>-0.002361033886441355</v>
+        <v>-0.002360858302434332</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01083422136136885</v>
+        <v>-0.01080084340803374</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01274855885433304</v>
+        <v>0.01307105680956692</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.004279787211191488</v>
+        <v>-0.00427309601092384</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.004279787211191488</v>
+        <v>-0.00427309601092384</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-0.004279787211191488</v>
+        <v>-0.004273344746933789</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.004279787211191488</v>
+        <v>-0.004273344746933789</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.004279787211191488</v>
+        <v>-0.004273344746933789</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1041,7 +1051,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.006574235398969415</v>
+        <v>-0.006572912614916503</v>
       </c>
       <c r="D9" t="n">
         <v>0.01773055731722229</v>
@@ -1050,33 +1060,35 @@
       <c r="F9" t="n">
         <v>-0.02488969318758773</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0.00952312779616428</v>
+      </c>
       <c r="H9" t="n">
-        <v>-0.01750959295638372</v>
+        <v>-0.01750469926018797</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0174667125386685</v>
+        <v>0.01747600293904012</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006833905448814239</v>
+        <v>0.006743751746189714</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01303429904937196</v>
+        <v>-0.01302183114487325</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01303429904937196</v>
+        <v>-0.01302183114487325</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.01303429904937196</v>
+        <v>-0.01302220372088815</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01303429904937196</v>
+        <v>-0.01302220372088815</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01303429904937196</v>
+        <v>-0.01302220372088815</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1104,7 +1116,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.002444180737767229</v>
+        <v>-0.00244177776167111</v>
       </c>
       <c r="D10" t="n">
         <v>-0.001247748721909949</v>
@@ -1113,33 +1125,35 @@
       <c r="F10" t="n">
         <v>0.009014637576585501</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0.01715657131819978</v>
+      </c>
       <c r="H10" t="n">
-        <v>0.008655653626226145</v>
+        <v>0.008658433306337332</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.002774134862965394</v>
+        <v>-0.002795835279833411</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003544008132602701</v>
+        <v>0.003626705513501808</v>
       </c>
       <c r="K10" t="n">
-        <v>0.006343769821750792</v>
+        <v>0.006352016318080652</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006343769821750792</v>
+        <v>0.006352016318080652</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.006343769821750792</v>
+        <v>0.0063517475180699</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.006343769821750792</v>
+        <v>0.0063517475180699</v>
       </c>
       <c r="R10" t="n">
-        <v>0.006343769821750792</v>
+        <v>0.0063517475180699</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1163,7 +1177,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.08671075412443015</v>
+        <v>0.08671654628466184</v>
       </c>
       <c r="D11" t="n">
         <v>0.204425199857008</v>
@@ -1172,33 +1186,35 @@
       <c r="F11" t="n">
         <v>0.005559803838392153</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0.00897289535313941</v>
+      </c>
       <c r="H11" t="n">
-        <v>0.008538603029544119</v>
+        <v>0.008531412245256487</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01751075148443006</v>
+        <v>-0.017539875005595</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.007220198337731675</v>
+        <v>-0.007336443112349556</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003535977549439101</v>
+        <v>0.003525865581034623</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003535977549439101</v>
+        <v>0.003525865581034623</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.003535977549439101</v>
+        <v>0.003525799821031992</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.003535977549439101</v>
+        <v>0.003525799821031992</v>
       </c>
       <c r="R11" t="n">
-        <v>0.003535977549439101</v>
+        <v>0.003525799821031992</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1222,7 +1238,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1914646142185845</v>
+        <v>-0.1914652073066083</v>
       </c>
       <c r="D12" t="n">
         <v>-5.44318101772724e-05</v>
@@ -1231,33 +1247,35 @@
       <c r="F12" t="n">
         <v>0.009980546127221844</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>-0.02051902325669209</v>
+      </c>
       <c r="H12" t="n">
-        <v>-0.003614536848581473</v>
+        <v>-0.003609089904363596</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0006663169226526768</v>
+        <v>-0.0006280855931234237</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005539145493297043</v>
+        <v>0.005763051395048302</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.005413987128559484</v>
+        <v>-0.005404635864185434</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.005413987128559484</v>
+        <v>-0.005404635864185434</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.005413987128559484</v>
+        <v>-0.005404282584171303</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.005413987128559484</v>
+        <v>-0.005404282584171303</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.005413987128559484</v>
+        <v>-0.005404282584171303</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1285,7 +1303,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.006985792119431684</v>
+        <v>-0.006975690231027608</v>
       </c>
       <c r="D13" t="n">
         <v>-0.01226342717853708</v>
@@ -1294,33 +1312,35 @@
       <c r="F13" t="n">
         <v>0.009407200024288</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0.02188041772960518</v>
+      </c>
       <c r="H13" t="n">
-        <v>-0.007534242829369713</v>
+        <v>-0.00754003278160131</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01256694779867791</v>
+        <v>-0.01261690984867639</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01386535635037095</v>
+        <v>0.01413356447797542</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01445718451428738</v>
+        <v>-0.01446967699478708</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.01445718451428738</v>
+        <v>-0.01446967699478708</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>-0.01445718451428738</v>
+        <v>-0.01446945091477803</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.01445718451428738</v>
+        <v>-0.01446945091477803</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.01445718451428738</v>
+        <v>-0.01446945091477803</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1348,7 +1368,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01148256391530255</v>
+        <v>0.01148274909930996</v>
       </c>
       <c r="D14" t="n">
         <v>-0.001213954320558173</v>
@@ -1357,33 +1377,35 @@
       <c r="F14" t="n">
         <v>0.04291829643673185</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0.007397583278138527</v>
+      </c>
       <c r="H14" t="n">
-        <v>0.0392207600968304</v>
+        <v>0.03922202614488104</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.001032196457287858</v>
+        <v>-0.001027646153105846</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01220668101137975</v>
+        <v>0.01252024275810331</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03275870665434826</v>
+        <v>0.03276255807850232</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03275870665434826</v>
+        <v>0.03276255807850232</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.03275870665434826</v>
+        <v>0.03276263574250542</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03275870665434826</v>
+        <v>0.03276263574250542</v>
       </c>
       <c r="R14" t="n">
-        <v>0.03275870665434826</v>
+        <v>0.03276263574250542</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1411,7 +1433,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.02152577222103088</v>
+        <v>-0.02153211282928451</v>
       </c>
       <c r="D15" t="n">
         <v>-0.009827577321103093</v>
@@ -1420,33 +1442,35 @@
       <c r="F15" t="n">
         <v>0.0001173144046925762</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>-0.02686250527811001</v>
+      </c>
       <c r="H15" t="n">
-        <v>0.01361464940858598</v>
+        <v>0.01361816608072664</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0228955400198216</v>
+        <v>0.02292079531683181</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.03040504444124699</v>
+        <v>-0.0304458342162246</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01380450151218006</v>
+        <v>0.01380833815233352</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01380450151218006</v>
+        <v>0.01380833815233352</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>0.01380450151218006</v>
+        <v>0.01380839047233562</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01380450151218006</v>
+        <v>0.01380839047233562</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01380450151218006</v>
+        <v>0.01380839047233562</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1474,7 +1498,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.04185967789838711</v>
+        <v>-0.04186141674645667</v>
       </c>
       <c r="D16" t="n">
         <v>0.0003126309245052369</v>
@@ -1483,33 +1507,35 @@
       <c r="F16" t="n">
         <v>0.01099176581567063</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0.004108929987349199</v>
+      </c>
       <c r="H16" t="n">
-        <v>-0.0001404339896173596</v>
+        <v>-0.0001348308533932341</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.004374204942968197</v>
+        <v>-0.00437802900712116</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01886037328056953</v>
+        <v>0.01866029251342428</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0004194390887775635</v>
+        <v>0.0004294818411792736</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004194390887775635</v>
+        <v>0.0004294818411792736</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.0004194390887775635</v>
+        <v>0.000429708401188336</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0004194390887775635</v>
+        <v>0.000429708401188336</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0004194390887775635</v>
+        <v>0.000429708401188336</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1533,7 +1559,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01287839369913575</v>
+        <v>0.01287728653109146</v>
       </c>
       <c r="D17" t="n">
         <v>0.02873018217320728</v>
@@ -1542,33 +1568,35 @@
       <c r="F17" t="n">
         <v>-0.001515197436607897</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>-0.001378675531283735</v>
+      </c>
       <c r="H17" t="n">
-        <v>0.00551596802863872</v>
+        <v>0.005513321596532863</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02845408040216321</v>
+        <v>0.02845771937830877</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0009759973109557307</v>
+        <v>-0.001111376039554835</v>
       </c>
       <c r="K17" t="n">
-        <v>0.005202992176119687</v>
+        <v>0.00520018177600727</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005202992176119687</v>
+        <v>0.00520018177600727</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.005202992176119687</v>
+        <v>0.005199826191993047</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.005202992176119687</v>
+        <v>0.005199826191993047</v>
       </c>
       <c r="R17" t="n">
-        <v>0.005202992176119687</v>
+        <v>0.005199826191993047</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1596,7 +1624,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.02389355202774208</v>
+        <v>-0.0238924650196986</v>
       </c>
       <c r="D18" t="n">
         <v>0.004774460542978422</v>
@@ -1605,33 +1633,35 @@
       <c r="F18" t="n">
         <v>0.01260703548028142</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>-0.005654791408336671</v>
+      </c>
       <c r="H18" t="n">
-        <v>0.002061774994471</v>
+        <v>0.002055083698203348</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1796916958916678</v>
+        <v>0.1796922733316909</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.005216477280483652</v>
+        <v>-0.00552281277158078</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.001870032554801302</v>
+        <v>-0.001881003435240137</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.001870032554801302</v>
+        <v>-0.001881003435240137</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.001870032554801302</v>
+        <v>-0.001880853099234124</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.001870032554801302</v>
+        <v>-0.001880853099234124</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.001870032554801302</v>
+        <v>-0.001880853099234124</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1659,7 +1689,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01494934859797394</v>
+        <v>0.01495822715832909</v>
       </c>
       <c r="D19" t="n">
         <v>0.003085432347417293</v>
@@ -1668,33 +1698,35 @@
       <c r="F19" t="n">
         <v>0.2510582683783307</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>-0.007023124126546533</v>
+      </c>
       <c r="H19" t="n">
-        <v>0.1656991237479649</v>
+        <v>0.1656962079398483</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01373080518923221</v>
+        <v>0.01371568614862744</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01041401491174562</v>
+        <v>-0.01058263138535214</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1197904557996182</v>
+        <v>0.1197853850794154</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1197904557996182</v>
+        <v>0.1197853850794154</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0.1197904557996182</v>
+        <v>0.119785324119413</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1197904557996182</v>
+        <v>0.119785324119413</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1197904557996182</v>
+        <v>0.119785324119413</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1718,7 +1750,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.001543698973747959</v>
+        <v>-0.001547002237880089</v>
       </c>
       <c r="D20" t="n">
         <v>0.0005019740360789613</v>
@@ -1727,33 +1759,35 @@
       <c r="F20" t="n">
         <v>0.1507924349596974</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0.005444621196479092</v>
+      </c>
       <c r="H20" t="n">
-        <v>0.07817623426304936</v>
+        <v>0.07818301973532078</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.002366928958677158</v>
+        <v>-0.00235536950221478</v>
       </c>
       <c r="J20" t="n">
-        <v>0.265679816401411</v>
+        <v>0.2657594555266569</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04711930950077238</v>
+        <v>0.04713146089325843</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04711930950077238</v>
+        <v>0.04713146089325843</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.04711930950077238</v>
+        <v>0.04713141106925644</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.04711930950077238</v>
+        <v>0.04713141106925644</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04711930950077238</v>
+        <v>0.04713141106925644</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1777,7 +1811,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.04564552963382118</v>
+        <v>0.04564347033773881</v>
       </c>
       <c r="D21" t="n">
         <v>-0.002844156401766256</v>
@@ -1786,33 +1820,35 @@
       <c r="F21" t="n">
         <v>0.2910018534000741</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>-0.002720251658711175</v>
+      </c>
       <c r="H21" t="n">
-        <v>0.2274509122340365</v>
+        <v>0.2274480976099239</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0099114825724593</v>
+        <v>0.009921780876871233</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.03045247122830621</v>
+        <v>-0.03047066447382327</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1816889598435584</v>
+        <v>0.1816841947873678</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1816889598435584</v>
+        <v>0.1816841947873678</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>0.1816889598435584</v>
+        <v>0.1816840236193609</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1816889598435584</v>
+        <v>0.1816840236193609</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1816889598435584</v>
+        <v>0.1816840236193609</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1836,7 +1872,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.03922121427284857</v>
+        <v>0.03921551244862049</v>
       </c>
       <c r="D22" t="n">
         <v>0.01360946550437862</v>
@@ -1845,33 +1881,35 @@
       <c r="F22" t="n">
         <v>0.03213667318946693</v>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>-0.01732835904801396</v>
+      </c>
       <c r="H22" t="n">
-        <v>0.04278176311927052</v>
+        <v>0.04277808190312327</v>
       </c>
       <c r="I22" t="n">
-        <v>0.008454036050161441</v>
+        <v>0.008472761906910474</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06560450621575309</v>
+        <v>0.06556049764504709</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04087246896289875</v>
+        <v>0.04086716112268644</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04087246896289875</v>
+        <v>0.04086716112268644</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.04087246896289875</v>
+        <v>0.04086730608269224</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04087246896289875</v>
+        <v>0.04086730608269224</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04087246896289875</v>
+        <v>0.04086730608269224</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1899,7 +1937,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.04059855579994223</v>
+        <v>0.0405836051433442</v>
       </c>
       <c r="D23" t="n">
         <v>-0.003054536282181451</v>
@@ -1908,33 +1946,35 @@
       <c r="F23" t="n">
         <v>0.5722914119476564</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>-0.0004742762191578807</v>
+      </c>
       <c r="H23" t="n">
-        <v>0.3582105705844228</v>
+        <v>0.3582096234483849</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02818134928725397</v>
+        <v>0.02820453338418133</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4421598451290787</v>
+        <v>0.4420917831356375</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2447252376930095</v>
+        <v>0.2447233453409338</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2447252376930095</v>
+        <v>0.2447233453409338</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.2447252376930095</v>
+        <v>0.24472350066894</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2447252376930095</v>
+        <v>0.24472350066894</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2447252376930095</v>
+        <v>0.24472350066894</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -1958,7 +1998,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0514074702162988</v>
+        <v>0.05140813693632547</v>
       </c>
       <c r="D24" t="n">
         <v>-0.002413117152524686</v>
@@ -1967,33 +2007,35 @@
       <c r="F24" t="n">
         <v>0.6783080497563219</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>-0.0176369120866014</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.4205440906777635</v>
+        <v>0.4205458824218352</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03444942128197685</v>
+        <v>0.03449055430762217</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2826840319142509</v>
+        <v>0.2827158965863804</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2888224201288968</v>
+        <v>0.2888259232650369</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2888224201288968</v>
+        <v>0.2888259232650369</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.2888224201288968</v>
+        <v>0.2888262031050481</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2888224201288968</v>
+        <v>0.2888262031050481</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2888224201288968</v>
+        <v>0.2888262031050481</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2021,7 +2063,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.04989338877973555</v>
+        <v>0.04989641258785649</v>
       </c>
       <c r="D25" t="n">
         <v>0.01544696836187873</v>
@@ -2030,33 +2072,35 @@
       <c r="F25" t="n">
         <v>0.02322005622480225</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>-0.01197325821664923</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.7572304020972159</v>
+        <v>0.7572314606892583</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1554626943145078</v>
+        <v>-0.1554574405222976</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.4484465530385965</v>
+        <v>-0.4483039628316024</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8757423903256956</v>
+        <v>0.8757443122457723</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8757423903256956</v>
+        <v>0.8757443122457723</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.8757423903256956</v>
+        <v>0.8757442746137708</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8757423903256956</v>
+        <v>0.8757442746137708</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8757423903256956</v>
+        <v>0.8757442746137708</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2080,7 +2124,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02731455728458229</v>
+        <v>0.02731784144471365</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01184227429769097</v>
@@ -2089,33 +2133,35 @@
       <c r="F26" t="n">
         <v>-0.01384863136994526</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>-0.01382973923402925</v>
+      </c>
       <c r="H26" t="n">
-        <v>-0.02191590903663636</v>
+        <v>-0.02192254071690163</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1228586526903461</v>
+        <v>-0.122886400627456</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01309490474867374</v>
+        <v>0.0128518047954506</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.02063270828130833</v>
+        <v>-0.02064465653778626</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.02063270828130833</v>
+        <v>-0.02064465653778626</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.02063270828130833</v>
+        <v>-0.02064468792978751</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.02063270828130833</v>
+        <v>-0.02064468792978751</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.02063270828130833</v>
+        <v>-0.02064468792978751</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2143,7 +2189,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0005431180057247202</v>
+        <v>0.0005481912219276487</v>
       </c>
       <c r="D27" t="n">
         <v>0.007680210739208429</v>
@@ -2152,33 +2198,35 @@
       <c r="F27" t="n">
         <v>0.006383614719344588</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>-0.002119336825371763</v>
+      </c>
       <c r="H27" t="n">
-        <v>0.02926090062643602</v>
+        <v>0.0292531975861279</v>
       </c>
       <c r="I27" t="n">
-        <v>0.001683313027332521</v>
+        <v>0.001654805442192218</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.005199992975420348</v>
+        <v>-0.005546931573133644</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03366758793870352</v>
+        <v>0.03365460710618428</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03366758793870352</v>
+        <v>0.03365460710618428</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0.03366758793870352</v>
+        <v>0.03365475907419035</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.03366758793870352</v>
+        <v>0.03365475907419035</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03366758793870352</v>
+        <v>0.03365475907419035</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2206,7 +2254,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.006832625169305005</v>
+        <v>0.006822414224896569</v>
       </c>
       <c r="D28" t="n">
         <v>0.02252746592509864</v>
@@ -2215,33 +2263,35 @@
       <c r="F28" t="n">
         <v>-0.002535143045405722</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>-0.009583463345027124</v>
+      </c>
       <c r="H28" t="n">
-        <v>-0.02417318323892733</v>
+        <v>-0.0241676775427071</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03048638329945533</v>
+        <v>0.0305120924844837</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01392073126594285</v>
+        <v>0.01397399249970154</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.02650069824402793</v>
+        <v>-0.02649253853170154</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.02650069824402793</v>
+        <v>-0.02649253853170154</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.02650069824402793</v>
+        <v>-0.02649288317171532</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.02650069824402793</v>
+        <v>-0.02649288317171532</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.02650069824402793</v>
+        <v>-0.02649288317171532</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2269,7 +2319,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.008571884214875368</v>
+        <v>-0.008572463958898557</v>
       </c>
       <c r="D29" t="n">
         <v>0.01502535189701407</v>
@@ -2278,33 +2328,35 @@
       <c r="F29" t="n">
         <v>-0.0103587399663496</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0.01436492758531031</v>
+      </c>
       <c r="H29" t="n">
-        <v>-0.001501003644040146</v>
+        <v>-0.001505114652204586</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0132173724006949</v>
+        <v>0.01320080529603221</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.02385787982692868</v>
+        <v>-0.02431247436533435</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0005170531406821255</v>
+        <v>0.0005063069962522798</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0005170531406821255</v>
+        <v>0.0005063069962522798</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.0005170531406821255</v>
+        <v>0.0005065621642624864</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0005170531406821255</v>
+        <v>0.0005065621642624864</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0005170531406821255</v>
+        <v>0.0005065621642624864</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2332,7 +2384,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01588734773949391</v>
+        <v>0.01589245589969824</v>
       </c>
       <c r="D30" t="n">
         <v>-0.03485036933001476</v>
@@ -2341,33 +2393,35 @@
       <c r="F30" t="n">
         <v>0.01381245636049825</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>-0.007158186950950282</v>
+      </c>
       <c r="H30" t="n">
-        <v>0.008250694794027791</v>
+        <v>0.008249119721964789</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.0298773776110951</v>
+        <v>-0.02987130282685211</v>
       </c>
       <c r="J30" t="n">
-        <v>0.006566664087576101</v>
+        <v>0.006689331502685921</v>
       </c>
       <c r="K30" t="n">
-        <v>0.005742555301702212</v>
+        <v>0.005742332965693318</v>
       </c>
       <c r="L30" t="n">
-        <v>0.005742555301702212</v>
+        <v>0.005742332965693318</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.005742555301702212</v>
+        <v>0.005742200773688031</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.005742555301702212</v>
+        <v>0.005742200773688031</v>
       </c>
       <c r="R30" t="n">
-        <v>0.005742555301702212</v>
+        <v>0.005742200773688031</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2395,7 +2449,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.005080470827218833</v>
+        <v>-0.005075035883001434</v>
       </c>
       <c r="D31" t="n">
         <v>-0.02383454149738166</v>
@@ -2404,33 +2458,35 @@
       <c r="F31" t="n">
         <v>7.90869151634766e-05</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0.002582087794713966</v>
+      </c>
       <c r="H31" t="n">
-        <v>0.004885261731410469</v>
+        <v>0.004888694307547772</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0270355175294207</v>
+        <v>-0.02704395439375817</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.005984768450041505</v>
+        <v>-0.005659971292411593</v>
       </c>
       <c r="K31" t="n">
-        <v>0.006395967135838685</v>
+        <v>0.006401270560050821</v>
       </c>
       <c r="L31" t="n">
-        <v>0.006395967135838685</v>
+        <v>0.006401270560050821</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>0.006395967135838685</v>
+        <v>0.006401466112058643</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.006395967135838685</v>
+        <v>0.006401466112058643</v>
       </c>
       <c r="R31" t="n">
-        <v>0.006395967135838685</v>
+        <v>0.006401466112058643</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2458,7 +2514,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01699909047196362</v>
+        <v>0.01698999495159979</v>
       </c>
       <c r="D32" t="n">
         <v>-0.003733192661327706</v>
@@ -2467,33 +2523,35 @@
       <c r="F32" t="n">
         <v>0.0114856724914269</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>-0.01805073367120219</v>
+      </c>
       <c r="H32" t="n">
-        <v>0.006354935198197407</v>
+        <v>0.006356080286243211</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.001203612432144497</v>
+        <v>-0.001166054446642178</v>
       </c>
       <c r="J32" t="n">
-        <v>0.009488493780045805</v>
+        <v>0.009540901814281426</v>
       </c>
       <c r="K32" t="n">
-        <v>0.002934075381363015</v>
+        <v>0.00293915426156617</v>
       </c>
       <c r="L32" t="n">
-        <v>0.002934075381363015</v>
+        <v>0.00293915426156617</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0.002934075381363015</v>
+        <v>0.002939351445574057</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.002934075381363015</v>
+        <v>0.002939351445574057</v>
       </c>
       <c r="R32" t="n">
-        <v>0.002934075381363015</v>
+        <v>0.002939351445574057</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2521,7 +2579,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01828647519545901</v>
+        <v>0.0182993598359744</v>
       </c>
       <c r="D33" t="n">
         <v>0.01683506400140256</v>
@@ -2530,33 +2588,35 @@
       <c r="F33" t="n">
         <v>-0.002824032400961296</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0.02761691395304901</v>
+      </c>
       <c r="H33" t="n">
-        <v>-0.02284879156995166</v>
+        <v>-0.02285834539433381</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0165699675747987</v>
+        <v>0.01650774363630974</v>
       </c>
       <c r="J33" t="n">
-        <v>0.02324490380338928</v>
+        <v>0.02278763633115919</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.02473374694134987</v>
+        <v>-0.02474835804593432</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.02473374694134987</v>
+        <v>-0.02474835804593432</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>-0.02473374694134987</v>
+        <v>-0.02474813647792546</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.02473374694134987</v>
+        <v>-0.02474813647792546</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.02473374694134987</v>
+        <v>-0.02474813647792546</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2584,7 +2644,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.004693384219735369</v>
+        <v>0.004692867163714686</v>
       </c>
       <c r="D34" t="n">
         <v>-0.01617811696712467</v>
@@ -2593,33 +2653,35 @@
       <c r="F34" t="n">
         <v>-0.02323358838534353</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0.0124417481541452</v>
+      </c>
       <c r="H34" t="n">
-        <v>-0.03839566003182639</v>
+        <v>-0.03839493983979759</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.01007582440303297</v>
+        <v>-0.01007053854682154</v>
       </c>
       <c r="J34" t="n">
-        <v>0.004743697697987478</v>
+        <v>0.00482268837450397</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.039872325082893</v>
+        <v>-0.03986834540273381</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.039872325082893</v>
+        <v>-0.03986834540273381</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>-0.039872325082893</v>
+        <v>-0.03986854498674179</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.039872325082893</v>
+        <v>-0.03986854498674179</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.039872325082893</v>
+        <v>-0.03986854498674179</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2647,7 +2709,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01203283555331342</v>
+        <v>0.01202839622513585</v>
       </c>
       <c r="D35" t="n">
         <v>0.01409742545989702</v>
@@ -2656,33 +2718,35 @@
       <c r="F35" t="n">
         <v>0.0003410269576410782</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0.001751050482745548</v>
+      </c>
       <c r="H35" t="n">
-        <v>0.00968686704347468</v>
+        <v>0.009695902659836105</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01372651062906042</v>
+        <v>0.01374395987775839</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.01017705507246076</v>
+        <v>-0.01000242097999588</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01195610735824429</v>
+        <v>0.01197401855896074</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01195610735824429</v>
+        <v>0.01197401855896074</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.01195610735824429</v>
+        <v>0.01197409670296387</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01195610735824429</v>
+        <v>0.01197409670296387</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01195610735824429</v>
+        <v>0.01197409670296387</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2710,7 +2774,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.005338097877523915</v>
+        <v>0.005329970901198835</v>
       </c>
       <c r="D36" t="n">
         <v>-0.01006508315460332</v>
@@ -2719,33 +2783,35 @@
       <c r="F36" t="n">
         <v>-0.006026116369044653</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0.003949113377020715</v>
+      </c>
       <c r="H36" t="n">
-        <v>-0.00333124400524976</v>
+        <v>-0.003323938788957551</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.01549146388365855</v>
+        <v>-0.01548335476333419</v>
       </c>
       <c r="J36" t="n">
-        <v>0.002667601132070944</v>
+        <v>0.003122425209034226</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0006474438978977559</v>
+        <v>-0.0006350985854039434</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0006474438978977559</v>
+        <v>-0.0006350985854039434</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.0006474438978977559</v>
+        <v>-0.0006348097213923888</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.0006474438978977559</v>
+        <v>-0.0006348097213923888</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.0006474438978977559</v>
+        <v>-0.0006348097213923888</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2773,7 +2839,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.01259733160789326</v>
+        <v>-0.01259725682389027</v>
       </c>
       <c r="D37" t="n">
         <v>0.01336814357472574</v>
@@ -2782,33 +2848,35 @@
       <c r="F37" t="n">
         <v>0.02393423682936947</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>-0.0003299271163749562</v>
+      </c>
       <c r="H37" t="n">
-        <v>0.02435893614235744</v>
+        <v>0.02436184100647364</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01034751900590076</v>
+        <v>0.01034045100561804</v>
       </c>
       <c r="J37" t="n">
-        <v>0.006384785067844178</v>
+        <v>0.006697797215230978</v>
       </c>
       <c r="K37" t="n">
-        <v>0.02039061652762466</v>
+        <v>0.02039875607995024</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02039061652762466</v>
+        <v>0.02039875607995024</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.02039061652762466</v>
+        <v>0.02039861668794466</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02039061652762466</v>
+        <v>0.02039861668794466</v>
       </c>
       <c r="R37" t="n">
-        <v>0.02039061652762466</v>
+        <v>0.02039861668794466</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2836,7 +2904,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.009900694092027762</v>
+        <v>-0.009898618475944738</v>
       </c>
       <c r="D38" t="n">
         <v>-0.02239686339187453</v>
@@ -2845,33 +2913,35 @@
       <c r="F38" t="n">
         <v>-0.0007799360951974436</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>-0.01153998556769385</v>
+      </c>
       <c r="H38" t="n">
-        <v>0.01581452588058103</v>
+        <v>0.01580714300028572</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.0271151575966063</v>
+        <v>-0.02709546962781878</v>
       </c>
       <c r="J38" t="n">
-        <v>0.002153012538877922</v>
+        <v>0.00180750698037453</v>
       </c>
       <c r="K38" t="n">
-        <v>0.09933302278932091</v>
+        <v>0.09932335827693432</v>
       </c>
       <c r="L38" t="n">
-        <v>0.09933302278932091</v>
+        <v>0.09932335827693432</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>0.09933302278932091</v>
+        <v>0.09932342998893717</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.09933302278932091</v>
+        <v>0.09932342998893717</v>
       </c>
       <c r="R38" t="n">
-        <v>0.09933302278932091</v>
+        <v>0.09932342998893717</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_-2_agile.xlsx
@@ -730,48 +730,48 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Oil retention [%]</t>
+          <t>Oil recovery [%]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.003447580457903218</v>
+        <v>-0.004356109326244373</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.02550668886026755</v>
+        <v>0.02550728713229148</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001056275627147679</v>
+        <v>-0.02282915396902607</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01453333354133334</v>
+        <v>0.0128070726082829</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0002506739620269585</v>
+        <v>0.004305749740229989</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.008388741674478669</v>
+        <v>0.003229817567127685</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00909186401167456</v>
+        <v>0.007652903154116124</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00909186401167456</v>
+        <v>0.007652903154116124</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0.009091905003676199</v>
+        <v>0.007652497170099885</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.009091905003676199</v>
+        <v>0.007652497170099885</v>
       </c>
       <c r="R4" t="n">
-        <v>0.009091905003676199</v>
+        <v>0.007652497170099885</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -791,48 +791,48 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Bagasse oil extraction efficiency [%]</t>
+          <t>Saccharification oil recovery [%]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01608813424352537</v>
+        <v>0.01580812469632499</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-0.008856860130274403</v>
+        <v>-0.008857048578281942</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0003040015323537905</v>
+        <v>0.01626644211130999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005492731323709252</v>
+        <v>0.013977324943093</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.001133720109348804</v>
+        <v>-0.001290410739616429</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.002292245946396642</v>
+        <v>-0.008749640485768727</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008481111891244475</v>
+        <v>0.01667697858707914</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008481111891244475</v>
+        <v>0.01667697858707914</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.008481225939249038</v>
+        <v>0.01667673964306958</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.008481225939249038</v>
+        <v>0.01667673964306958</v>
       </c>
       <c r="R5" t="n">
-        <v>0.008481225939249038</v>
+        <v>0.01667673964306958</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -856,44 +856,44 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1771303971652159</v>
+        <v>0.1737309219252368</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.005992976879719074</v>
+        <v>0.005993060111722404</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03402313189935357</v>
+        <v>0.0100811004252931</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006602596200103847</v>
+        <v>0.0119035700121428</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4679871221754848</v>
+        <v>-0.4679641991985679</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007760435220544038</v>
+        <v>-0.007901808755597437</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005356734742269388</v>
+        <v>0.01232280826891233</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005356734742269388</v>
+        <v>0.01232280826891233</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0.005356604470264178</v>
+        <v>0.01232248177289927</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.005356604470264178</v>
+        <v>0.01232248177289927</v>
       </c>
       <c r="R6" t="n">
-        <v>0.005356604470264178</v>
+        <v>0.01232248177289927</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -917,44 +917,44 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.07014774395790975</v>
+        <v>0.06797678671907147</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-0.02479170531166821</v>
+        <v>-0.02479121475164859</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.006551558719588372</v>
+        <v>0.003296706600139383</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01089903835596153</v>
+        <v>0.01616510560660422</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2376361406414456</v>
+        <v>-0.2379257139970285</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01196681981050872</v>
+        <v>-0.00705060176122641</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0168586975703479</v>
+        <v>0.02255335607013424</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0168586975703479</v>
+        <v>0.02255335607013424</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0.01685865782634631</v>
+        <v>0.02255364483814579</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01685865782634631</v>
+        <v>0.02255364483814579</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01685865782634631</v>
+        <v>0.02255364483814579</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -978,44 +978,44 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2006407460736298</v>
+        <v>0.1967318444132737</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-0.004900795300031811</v>
+        <v>-0.004900447972017918</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03882551579661012</v>
+        <v>0.01016878210005812</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.03010989547639581</v>
+        <v>-0.01976758312670332</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8001043840681753</v>
+        <v>0.8001813155912526</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0112480869671145</v>
+        <v>0.0159910504182864</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0322073399442936</v>
+        <v>-0.01917267830290713</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0322073399442936</v>
+        <v>-0.01917267830290713</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-0.03220726458429057</v>
+        <v>-0.01917291715091668</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.03220726458429057</v>
+        <v>-0.01917291715091668</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.03220726458429057</v>
+        <v>-0.01917291715091668</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1043,44 +1043,44 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9232233815689351</v>
+        <v>0.9177798995911959</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-0.03168317723532709</v>
+        <v>-0.03168220053128802</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01204514410735601</v>
+        <v>-0.006113435300637154</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0103205401248216</v>
+        <v>-0.01300108612004344</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008302653260106129</v>
+        <v>0.008532027989281118</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02139322665163746</v>
+        <v>-0.01892842801610866</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.003194435263777409</v>
+        <v>-0.00734549827781993</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.003194435263777409</v>
+        <v>-0.00734549827781993</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.00319466076778643</v>
+        <v>-0.007345944005837759</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.00319466076778643</v>
+        <v>-0.007345944005837759</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.00319466076778643</v>
+        <v>-0.007345944005837759</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1108,44 +1108,44 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.009474948570997942</v>
+        <v>0.01235147905405916</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.01088756222750249</v>
+        <v>-0.01088686027547441</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008415120518945378</v>
+        <v>-0.01497471578925101</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.003219914624796584</v>
+        <v>-0.00155261900610476</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01396299156651966</v>
+        <v>-0.01391195623647825</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.01335721448645518</v>
+        <v>-0.003708915579478789</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002197890039915601</v>
+        <v>0.002486753091470123</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002197890039915601</v>
+        <v>0.002486753091470123</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.002197649559905982</v>
+        <v>0.002486509827460392</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.002197649559905982</v>
+        <v>0.002486509827460392</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002197649559905982</v>
+        <v>0.002486509827460392</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1173,44 +1173,44 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01065272951410918</v>
+        <v>-0.1006953968598159</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.001270316690812667</v>
+        <v>0.001270176722807069</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01144307510497002</v>
+        <v>0.01756396568186077</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.005767042886681715</v>
+        <v>-0.0003354665414186616</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01332638069305522</v>
+        <v>0.01355400975816039</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.02068619889694995</v>
+        <v>-0.01598035779365366</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.008188245447529816</v>
+        <v>-0.001281842163273686</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.008188245447529816</v>
+        <v>-0.001281842163273686</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>-0.008188423335536932</v>
+        <v>-0.001281426675257067</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.008188423335536932</v>
+        <v>-0.001281426675257067</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.008188423335536932</v>
+        <v>-0.001281426675257067</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1238,44 +1238,44 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.01834500534180021</v>
+        <v>-0.01926640205065608</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.01824845026593801</v>
+        <v>0.0182482951299318</v>
       </c>
       <c r="G12" t="n">
-        <v>0.000236027811012776</v>
+        <v>-0.0003030047246945641</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02468132661925306</v>
+        <v>0.0162752202030088</v>
       </c>
       <c r="I12" t="n">
-        <v>-5.182521807300871e-05</v>
+        <v>0.0004067755362710214</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.007157420880136444</v>
+        <v>0.001166428341024564</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02378825077553003</v>
+        <v>0.01343889720955589</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02378825077553003</v>
+        <v>0.01343889720955589</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0.02378840159153606</v>
+        <v>0.0134390200895608</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02378840159153606</v>
+        <v>0.0134390200895608</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02378840159153606</v>
+        <v>0.0134390200895608</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1299,44 +1299,44 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2458571896742876</v>
+        <v>-0.2425170330286813</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.01180706380028255</v>
+        <v>0.01180992133639685</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02906871413617856</v>
+        <v>0.001808927392308782</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01215913219836529</v>
+        <v>0.0159408151336326</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.002246690969867638</v>
+        <v>-0.002675995595039823</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.020405773808019</v>
+        <v>-0.02210022908380316</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01224663149786526</v>
+        <v>0.01615583795823352</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01224663149786526</v>
+        <v>0.01615583795823352</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.01224689175387567</v>
+        <v>0.01615607795824312</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01224689175387567</v>
+        <v>0.01615607795824312</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01224689175387567</v>
+        <v>0.01615607795824312</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1364,44 +1364,44 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.007584714831388591</v>
+        <v>-0.00848860603554424</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.02475471679818867</v>
+        <v>0.02475387065415482</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01916241982074387</v>
+        <v>-0.0008323602267682195</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.003506710124268405</v>
+        <v>-0.001430401209216048</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.02902121876084875</v>
+        <v>-0.02930758322030333</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002586803148180827</v>
+        <v>0.008559782282533677</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.009410901880436074</v>
+        <v>-0.007227566881102675</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.009410901880436074</v>
+        <v>-0.007227566881102675</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>-0.009410523736420947</v>
+        <v>-0.007227670369106813</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.009410523736420947</v>
+        <v>-0.007227670369106813</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.009410523736420947</v>
+        <v>-0.007227670369106813</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1429,44 +1429,44 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.004300355116014204</v>
+        <v>0.005265293298611732</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.005484079035363161</v>
+        <v>-0.005485062459402498</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.003988063339323259</v>
+        <v>0.01429619523709592</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009990618639624744</v>
+        <v>0.0005710484388419375</v>
       </c>
       <c r="I15" t="n">
-        <v>0.004727343069093722</v>
+        <v>0.005133158125326324</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.006289164283714584</v>
+        <v>0.0001498328248665073</v>
       </c>
       <c r="K15" t="n">
-        <v>0.005104210380168415</v>
+        <v>0.0043618025104721</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005104210380168415</v>
+        <v>0.0043618025104721</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>0.005104114668164585</v>
+        <v>0.004361561838462473</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.005104114668164585</v>
+        <v>0.004361561838462473</v>
       </c>
       <c r="R15" t="n">
-        <v>0.005104114668164585</v>
+        <v>0.004361561838462473</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1494,44 +1494,44 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.0176908724516349</v>
+        <v>-0.01543095402523816</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.02090540934821637</v>
+        <v>0.02090202842008114</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01008444935143047</v>
+        <v>-0.0196174497416697</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0001698656707946268</v>
+        <v>-0.004954255974170238</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01227436042697441</v>
+        <v>0.01182487736899509</v>
       </c>
       <c r="J16" t="n">
-        <v>0.007505463381149859</v>
+        <v>0.007453342809059015</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.00381173151246926</v>
+        <v>-0.008853884418155374</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.00381173151246926</v>
+        <v>-0.008853884418155374</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>-0.003811718648468745</v>
+        <v>-0.00885377776215111</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.003811718648468745</v>
+        <v>-0.00885377776215111</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.003811718648468745</v>
+        <v>-0.00885377776215111</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1559,44 +1559,44 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.06631491740459669</v>
+        <v>-0.0654491528899661</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.01293810474152419</v>
+        <v>0.01293273152530926</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0006993747733702524</v>
+        <v>0.01069669690988385</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02180056464802258</v>
+        <v>0.02052306331692253</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.005371194358847774</v>
+        <v>-0.005001668360066733</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.02216179372204046</v>
+        <v>-0.01125561249006213</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02036851847874074</v>
+        <v>0.01901156658446266</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02036851847874074</v>
+        <v>0.01901156658446266</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.02036831668673266</v>
+        <v>0.01901170175246807</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02036831668673266</v>
+        <v>0.01901170175246807</v>
       </c>
       <c r="R17" t="n">
-        <v>0.02036831668673266</v>
+        <v>0.01901170175246807</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1620,44 +1620,44 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01232349946893998</v>
+        <v>-0.01099629634385185</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.02528128881925155</v>
+        <v>0.02528448321937932</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.001248101879581168</v>
+        <v>0.0065504933633891</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02203093384123735</v>
+        <v>0.02126220469048819</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.004385011279400451</v>
+        <v>-0.004171510726860428</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002599067052921273</v>
+        <v>-0.00504507433054732</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01446403382656135</v>
+        <v>0.01431129983645199</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01446403382656135</v>
+        <v>0.01431129983645199</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>0.0144638051545522</v>
+        <v>0.01431106041244241</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0144638051545522</v>
+        <v>0.01431106041244241</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0144638051545522</v>
+        <v>0.01431106041244241</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1685,44 +1685,44 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.03611086646843466</v>
+        <v>-0.03718932187157287</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.0008515216660608664</v>
+        <v>0.0008512982740519309</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004806728916189567</v>
+        <v>-0.01982397603062016</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.001203872976154919</v>
+        <v>-0.003077984667119386</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1532464690418588</v>
+        <v>0.1537624220224968</v>
       </c>
       <c r="J19" t="n">
-        <v>0.006712770165290212</v>
+        <v>0.008995924228342812</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001484645819385832</v>
+        <v>-0.001918757836750313</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001484645819385832</v>
+        <v>-0.001918757836750313</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0.0001483374779334991</v>
+        <v>-0.001918700908748036</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0001483374779334991</v>
+        <v>-0.001918700908748036</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0001483374779334991</v>
+        <v>-0.001918700908748036</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1750,44 +1750,44 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.009309365652374625</v>
+        <v>-0.008794807647792306</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.2774760684110427</v>
+        <v>0.277476427067057</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01492600160019823</v>
+        <v>-0.0186707831374027</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1624737072669483</v>
+        <v>0.1587276161411046</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01857628711105148</v>
+        <v>0.0182604075464163</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0121708244788257</v>
+        <v>0.01476773962589576</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1129856438474257</v>
+        <v>0.1126201480248059</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1129856438474257</v>
+        <v>0.1126201480248059</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.1129852423754097</v>
+        <v>0.1126198198007928</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1129852423754097</v>
+        <v>0.1126198198007928</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1129852423754097</v>
+        <v>0.1126198198007928</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1811,44 +1811,44 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.02142815394512616</v>
+        <v>-0.01915365638214625</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.1268769666110786</v>
+        <v>0.1268737135549485</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.02415775474774118</v>
+        <v>0.02027993334787815</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08298681653547264</v>
+        <v>0.08537570501502818</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01523109920124397</v>
+        <v>0.01466302945052118</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2366767167695935</v>
+        <v>0.2465017500909876</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06101313479252538</v>
+        <v>0.06580420698416828</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06101313479252538</v>
+        <v>0.06580420698416828</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>0.06101311079252442</v>
+        <v>0.06580426708017068</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.06101311079252442</v>
+        <v>0.06580426708017068</v>
       </c>
       <c r="R21" t="n">
-        <v>0.06101311079252442</v>
+        <v>0.06580426708017068</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1872,44 +1872,44 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02701847973673918</v>
+        <v>-0.02611918914076756</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.312275851403034</v>
+        <v>0.312276152555046</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005323537077036348</v>
+        <v>0.01559367331102824</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2411869375194775</v>
+        <v>0.2351244437729777</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00129361800374472</v>
+        <v>0.0009234949809397991</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01822897958059288</v>
+        <v>-0.0355337823267471</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1925724703908988</v>
+        <v>0.1902684704907388</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1925724703908988</v>
+        <v>0.1902684704907388</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.1925724298788972</v>
+        <v>0.1902682321227293</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1925724298788972</v>
+        <v>0.1902682321227293</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1925724298788972</v>
+        <v>0.1902682321227293</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1933,44 +1933,44 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.002670419338816773</v>
+        <v>0.005479954587198182</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0.03874717652588705</v>
+        <v>0.0387483577099343</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.006805679146055556</v>
+        <v>0.01188694904306852</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01929648365185934</v>
+        <v>0.01807273157090926</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0005799577191983087</v>
+        <v>0.0007714455668578226</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0973566230140035</v>
+        <v>0.08977946153678941</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01479087399963496</v>
+        <v>0.01276067129442685</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01479087399963496</v>
+        <v>0.01276067129442685</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.01479096587163863</v>
+        <v>0.01276056051042242</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01479096587163863</v>
+        <v>0.01276056051042242</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01479096587163863</v>
+        <v>0.01276056051042242</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -1998,44 +1998,44 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.0139238924929557</v>
+        <v>-0.01277454060698162</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.5598534168261365</v>
+        <v>0.5598511894340474</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001401834626825001</v>
+        <v>-0.005359508693843003</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3096597312023892</v>
+        <v>0.3098197826007912</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04308692687547707</v>
+        <v>0.04227505033100201</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4265558020097333</v>
+        <v>0.4201965512175511</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2063111639004465</v>
+        <v>0.2145972427598897</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2063111639004465</v>
+        <v>0.2145972427598897</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.2063114830044593</v>
+        <v>0.2145970190798807</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2063114830044593</v>
+        <v>0.2145970190798807</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2063114830044593</v>
+        <v>0.2145970190798807</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2059,44 +2059,44 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.0005829701033188041</v>
+        <v>-0.004079790595191623</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.6784998946279956</v>
+        <v>0.6785017899560716</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.002658895588384765</v>
+        <v>-0.03207780613261432</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4217349563253982</v>
+        <v>0.4187531394701255</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01163439435337577</v>
+        <v>0.01167098667483947</v>
       </c>
       <c r="J25" t="n">
-        <v>0.263118339982033</v>
+        <v>0.2717730886584443</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3029076931403077</v>
+        <v>0.3080729836189193</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3029076931403077</v>
+        <v>0.3080729836189193</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.302907427604297</v>
+        <v>0.3080730728989229</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.302907427604297</v>
+        <v>0.3080730728989229</v>
       </c>
       <c r="R25" t="n">
-        <v>0.302907427604297</v>
+        <v>0.3080730728989229</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2124,44 +2124,44 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.007165147678605906</v>
+        <v>-0.01491465448458618</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>-0.02478182038327281</v>
+        <v>-0.02478479369539174</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.009925971011874379</v>
+        <v>-0.01524885168540553</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6875525046221002</v>
+        <v>0.691630076753203</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1599891519035661</v>
+        <v>-0.1585094896363796</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.4888065421841839</v>
+        <v>-0.4823140781574179</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7859277359491094</v>
+        <v>0.7770132083285283</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7859277359491094</v>
+        <v>0.7770132083285283</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>0.7859278510531138</v>
+        <v>0.7770131355605252</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7859278510531138</v>
+        <v>0.7770131355605252</v>
       </c>
       <c r="R26" t="n">
-        <v>0.7859278510531138</v>
+        <v>0.7770131355605252</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2185,44 +2185,44 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.04129127713965108</v>
+        <v>0.04371413541256541</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.02743066208922648</v>
+        <v>0.02742670247306809</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01839489324226081</v>
+        <v>-0.008670698418197067</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.002160787190431487</v>
+        <v>0.004428914001156559</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.06191389082855563</v>
+        <v>-0.06238950431958016</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02126390633982961</v>
+        <v>0.02102100474793898</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.01186568293862732</v>
+        <v>-0.004490500979620038</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.01186568293862732</v>
+        <v>-0.004490500979620038</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>-0.01186573775462951</v>
+        <v>-0.004490888243635529</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.01186573775462951</v>
+        <v>-0.004490888243635529</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.01186573775462951</v>
+        <v>-0.004490888243635529</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2250,44 +2250,44 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01420837880833515</v>
+        <v>0.01231118046044721</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.02304077132163085</v>
+        <v>0.02304191458567658</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01633382175509444</v>
+        <v>-0.002659476065427306</v>
       </c>
       <c r="H28" t="n">
-        <v>0.009448282553931301</v>
+        <v>0.004069692546787702</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02015017415000697</v>
+        <v>0.01984620732184829</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02101543749282806</v>
+        <v>0.02503607677753488</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00323914400156576</v>
+        <v>-0.003341685541667421</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00323914400156576</v>
+        <v>-0.003341685541667421</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0.003239357985574319</v>
+        <v>-0.00334183674167347</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.003239357985574319</v>
+        <v>-0.00334183674167347</v>
       </c>
       <c r="R28" t="n">
-        <v>0.003239357985574319</v>
+        <v>-0.00334183674167347</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2315,44 +2315,44 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.008485269939410796</v>
+        <v>0.00905809101832364</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.02354324618972985</v>
+        <v>0.02354425102177004</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.02221049352448325</v>
+        <v>-0.006214426572489457</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02304344828173793</v>
+        <v>0.02463474338538973</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02472361586894463</v>
+        <v>-0.02395891142235645</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01540390038602589</v>
+        <v>0.02898812821140147</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02315048492601939</v>
+        <v>0.02524235064169402</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02315048492601939</v>
+        <v>0.02524235064169402</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.0231502699820108</v>
+        <v>0.02524232539369301</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0231502699820108</v>
+        <v>0.02524232539369301</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0231502699820108</v>
+        <v>0.02524232539369301</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2380,44 +2380,44 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.02276593137463725</v>
+        <v>-0.02262218922488756</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>-0.02456090565443622</v>
+        <v>-0.02456118847044753</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001786492197414651</v>
+        <v>-0.0009696087331743632</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01083376833735073</v>
+        <v>-0.0150865225234609</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.02019538573581543</v>
+        <v>-0.0200345126733805</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.01785862442223231</v>
+        <v>-0.01339332208856323</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.002630853801234151</v>
+        <v>-0.007729020885160833</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.002630853801234151</v>
+        <v>-0.007729020885160833</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>-0.002630933289237331</v>
+        <v>-0.007729142901165715</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.002630933289237331</v>
+        <v>-0.007729142901165715</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.002630933289237331</v>
+        <v>-0.007729142901165715</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -2445,44 +2445,44 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.003020717880828714</v>
+        <v>-0.003075112155004485</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>-0.01481391304055652</v>
+        <v>-0.0148149325605973</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001949896054771466</v>
+        <v>-0.00273482897267126</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.002110154388406175</v>
+        <v>-0.005014639400585576</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01386301850652074</v>
+        <v>0.01317849729513989</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.01147684226092583</v>
+        <v>-0.01647711663904985</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0005284708051388321</v>
+        <v>-0.003665628434625137</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0005284708051388321</v>
+        <v>-0.003665628434625137</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>0.0005284941331397653</v>
+        <v>-0.003664867634594705</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0005284941331397653</v>
+        <v>-0.003664867634594705</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0005284941331397653</v>
+        <v>-0.003664867634594705</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2510,44 +2510,44 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.003598375247935009</v>
+        <v>-0.00507331277893251</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.02305077548203101</v>
+        <v>0.02305551481022059</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01599203213556811</v>
+        <v>-0.003677708952549455</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02377781000711239</v>
+        <v>0.02782577429703097</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0005275024531000981</v>
+        <v>0.0003691854867674194</v>
       </c>
       <c r="J32" t="n">
-        <v>0.000815449297233567</v>
+        <v>0.007761180651275628</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02239751446390057</v>
+        <v>0.02613953614958144</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02239751446390057</v>
+        <v>0.02613953614958144</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0.02239754883190195</v>
+        <v>0.02613936411757456</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.02239754883190195</v>
+        <v>0.02613936411757456</v>
       </c>
       <c r="R32" t="n">
-        <v>0.02239754883190195</v>
+        <v>0.02613936411757456</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -2575,44 +2575,44 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.002703481548139262</v>
+        <v>-0.001555777214231088</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>-0.01335472920618917</v>
+        <v>-0.01335380520615221</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.01548043562367278</v>
+        <v>0.0172668533813195</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.01848753462750138</v>
+        <v>-0.01284140489765619</v>
       </c>
       <c r="I33" t="n">
-        <v>0.004290564363622574</v>
+        <v>0.003603676656147066</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.01034610873665666</v>
+        <v>-0.006604966566855503</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01743298092131923</v>
+        <v>-0.0111775475191019</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.01743298092131923</v>
+        <v>-0.0111775475191019</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>-0.01743292600931704</v>
+        <v>-0.01117732633509305</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.01743292600931704</v>
+        <v>-0.01117732633509305</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.01743292600931704</v>
+        <v>-0.01117732633509305</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2640,44 +2640,44 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.005554603806184152</v>
+        <v>0.005580212479208498</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>0.001201036656041466</v>
+        <v>0.001200428304017132</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.004009383000523386</v>
+        <v>-0.01003017206143976</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.01142179168887167</v>
+        <v>-0.01613250832530033</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0128023424960937</v>
+        <v>0.01330515893220636</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02449717463104142</v>
+        <v>0.03347037764464307</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.01325381141015245</v>
+        <v>-0.01765856355434254</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.01325381141015245</v>
+        <v>-0.01765856355434254</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>-0.01325370955414838</v>
+        <v>-0.01765873529834941</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.01325370955414838</v>
+        <v>-0.01765873529834941</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.01325370955414838</v>
+        <v>-0.01765873529834941</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2705,44 +2705,44 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01622208717688348</v>
+        <v>-0.01415889666235586</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>-0.01266212143448486</v>
+        <v>-0.01266395445855818</v>
       </c>
       <c r="G35" t="n">
-        <v>0.002534999930426557</v>
+        <v>0.006709462322687518</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.01374504736580189</v>
+        <v>-0.02284649620985985</v>
       </c>
       <c r="I35" t="n">
-        <v>0.001639927169597087</v>
+        <v>0.00243315801732632</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01125475771951726</v>
+        <v>0.01832572951644337</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.01365280653011226</v>
+        <v>-0.02413690925347637</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.01365280653011226</v>
+        <v>-0.02413690925347637</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>-0.01365281814611272</v>
+        <v>-0.02413657776546311</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.01365281814611272</v>
+        <v>-0.02413657776546311</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.01365281814611272</v>
+        <v>-0.02413657776546311</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2770,44 +2770,44 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.02619534162381366</v>
+        <v>-0.02544412959376518</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>-0.003419745352789814</v>
+        <v>-0.003421090312843612</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01130822778105518</v>
+        <v>-0.002398157362375033</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.00661692352867694</v>
+        <v>-0.009822321320892851</v>
       </c>
       <c r="I36" t="n">
-        <v>0.002070819154832766</v>
+        <v>0.002923620980944838</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.01130891919478731</v>
+        <v>-0.01293185226925529</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.005221316752852669</v>
+        <v>-0.009078478539139141</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.005221316752852669</v>
+        <v>-0.009078478539139141</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.005221282192851287</v>
+        <v>-0.009078937131157485</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.005221282192851287</v>
+        <v>-0.009078937131157485</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.005221282192851287</v>
+        <v>-0.009078937131157485</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2835,44 +2835,44 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.005311996724479869</v>
+        <v>0.002178880311155212</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.02331582851663314</v>
+        <v>0.02331741462869658</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0008171531693553985</v>
+        <v>0.007155869940533937</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002725789165031566</v>
+        <v>0.008126875429075016</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02496926682277067</v>
+        <v>0.02483619852944794</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02518481024055811</v>
+        <v>0.02036745115726429</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.004175996807039872</v>
+        <v>0.002485590723423628</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.004175996807039872</v>
+        <v>0.002485590723423628</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>-0.004175689415027576</v>
+        <v>0.002485275843411034</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.004175689415027576</v>
+        <v>0.002485275843411034</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.004175689415027576</v>
+        <v>0.002485275843411034</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2900,44 +2900,44 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01444945843397833</v>
+        <v>0.01389793437991737</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>-0.01593613772544551</v>
+        <v>-0.01593694642947786</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01113898783047272</v>
+        <v>0.04105169748461148</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.02295755199030208</v>
+        <v>-0.01956079287843171</v>
       </c>
       <c r="I38" t="n">
-        <v>0.00618858303154332</v>
+        <v>0.006736083341443332</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01458448590455293</v>
+        <v>0.01105466465417084</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.02158391318335653</v>
+        <v>-0.01767552368302095</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.02158391318335653</v>
+        <v>-0.01767552368302095</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>-0.02158400899136036</v>
+        <v>-0.01767548576301943</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.02158400899136036</v>
+        <v>-0.01767548576301943</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.02158400899136036</v>
+        <v>-0.01767548576301943</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -2965,44 +2965,44 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.001688665315546612</v>
+        <v>-0.002865598290623931</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>-0.006327549373101974</v>
+        <v>-0.006328121629124864</v>
       </c>
       <c r="G39" t="n">
-        <v>0.007859570312841431</v>
+        <v>0.001502949473798593</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01078585415943416</v>
+        <v>0.01202147040085881</v>
       </c>
       <c r="I39" t="n">
-        <v>0.001563615518544621</v>
+        <v>0.0009118077484723099</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.003508334947819232</v>
+        <v>0.001355012432184216</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0749153351246134</v>
+        <v>0.0768091679043667</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0749153351246134</v>
+        <v>0.0768091679043667</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>0.07491536613261464</v>
+        <v>0.07680962448038497</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.07491536613261464</v>
+        <v>0.07680962448038497</v>
       </c>
       <c r="R39" t="n">
-        <v>0.07491536613261464</v>
+        <v>0.07680962448038497</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
